--- a/PR Summary.xlsx
+++ b/PR Summary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="287">
   <si>
     <t>PR Summary 2020</t>
   </si>
@@ -77,31 +77,874 @@
     <t>End User's Comments</t>
   </si>
   <si>
+    <t>2020-06-03</t>
+  </si>
+  <si>
+    <t>Ladies Dormitory</t>
+  </si>
+  <si>
+    <t>CENPRI Female Employees</t>
+  </si>
+  <si>
+    <t>SPE20-1309</t>
+  </si>
+  <si>
+    <t>Iris J. Sixto/Irish Dawn E. Torres</t>
+  </si>
+  <si>
+    <t>cyls</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acetylene </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.25.2020 - Delivered DR# 1657
+</t>
+  </si>
+  <si>
+    <t>Fully Delivered</t>
+  </si>
+  <si>
     <t>2020-06-30</t>
   </si>
   <si>
-    <t>BCD</t>
-  </si>
-  <si>
-    <t>SAMPLE</t>
-  </si>
-  <si>
-    <t>ITB20-1006</t>
-  </si>
-  <si>
-    <t>JASON FLOR</t>
-  </si>
-  <si>
-    <t>PC/S</t>
+    <t>FR-103-2020</t>
+  </si>
+  <si>
+    <t>pcs</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adapter, PVC, Male, 1/2'’, w/ Lock Nut </t>
+  </si>
+  <si>
+    <t xml:space="preserve">09.11.2020 - Delivered DR# 1780
+</t>
+  </si>
+  <si>
+    <t>2020-07-07</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>PEN  - UNSERVED 2 PC/S</t>
+    <t xml:space="preserve">Adaptor, Female, PVC, 1/2" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.22.2020 - Delivered DR# 1632
+</t>
+  </si>
+  <si>
+    <t>2020-06-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 2.00 pcs
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adaptor, Male, HDPE, Thread, 1" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.28.2020 - Delivered DR# 1676
+</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Airconditioner, Window Type, 0.5Hp </t>
+  </si>
+  <si>
+    <t>For RFQ</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>lgths</t>
+  </si>
+  <si>
+    <t>DJ</t>
+  </si>
+  <si>
+    <t>Bar, Angle, 1/4" x 1" x 1" x 20 ft  - UNSERVED 5 lgths</t>
   </si>
   <si>
     <t>Partially Delivered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar, Angle, Aluminum, 1/2" x 1/2" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar, Steel, Deformed/Corrugated, 10mm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar, Steel, Deformed/Corrugated, 12mm </t>
+  </si>
+  <si>
+    <t>2020-06-16</t>
+  </si>
+  <si>
+    <t>Bar, Steel, Deformed/Corrugated, 8mm  - UNSERVED 35 lgths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 1.00 set
+</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>BX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blade, Putty </t>
+  </si>
+  <si>
+    <t xml:space="preserve">09.01.2020 - Delivered DR# 1781
+</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block, Hallow, Concrete, 4" x 8" x 16" </t>
+  </si>
+  <si>
+    <t>PO Issued (32.00 pcs)</t>
+  </si>
+  <si>
+    <t>shts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Board, Hardiflex, 1/2" x 4 ft x 8 ft </t>
+  </si>
+  <si>
+    <t xml:space="preserve">09.01.2020 - Delivered DR# 1788
+10.13.2020 - Delivered DR# 1791
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowl, Toilet, with Tank </t>
+  </si>
+  <si>
+    <t xml:space="preserve">09.24.2020 - Delivered DR# 1879
+</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brush, Paint, 2" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.16.2020 - Delivered DR# 1626
+</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brush, Roller, Refill, 4" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.16.2020 - Delivered DR# 1627
+</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brush, Steel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.21.2020 - Delivered DR# 1615
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buckle, Turn, 16mm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.28.2020 - Delivered DR# 1655
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-Clamp, 1/2" </t>
+  </si>
+  <si>
+    <t>bags</t>
+  </si>
+  <si>
+    <t>EM</t>
+  </si>
+  <si>
+    <t>Cement, Portland  - UNSERVED 69 bags</t>
+  </si>
+  <si>
+    <t>PO Issued - Partial
+Partially Delivered</t>
+  </si>
+  <si>
+    <t>kgs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compound, Patching </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coupling, PVC, 1/2" </t>
+  </si>
+  <si>
+    <t>sets</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curtain, Shower, with Rod (pvc plastic) </t>
+  </si>
+  <si>
+    <t>2020-07-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 8.00 pcs
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disc, Cutting, 14" </t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disc, Cutting, 4" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.22.2020 - Delivered DR# 1625
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 1.00 pcs.
+</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disc, Cutting, Diamond, 4" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">08.11.2020 - Delivered DR# 1728
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Door Knob </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AOQ Done - For TE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 9.00 sets
+Rev. 1: 4.00 sets
+Rev. 2: 9.00 sets
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Door, Flush, 2.10m x 0.90m </t>
+  </si>
+  <si>
+    <t>PO Issued (4.00 sets)</t>
+  </si>
+  <si>
+    <t>Door, Jamb, 2.10m x 0.90m  - UNSERVED 5 sets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 24.00 pcs
+Rev. 1: 24.00 pcs
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drawer lock </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.01.2020 - Delivered DR# 1877
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 3.00 box
+</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drill Bit, Metal, 1/8" </t>
+  </si>
+  <si>
+    <t>encode new PR  superseded by PR No. SPE20-1371 08.08.20</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drill Bit, Metal, 3/16" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drill Bit, Metal, 6mm dia. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">09.24.2020 - Delivered DR# 1878
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elbow, Plain, PVC, 90 deg, 1/2" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elbow, PVC, 90 deg, 2" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 5.00 pcs
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elbow, PVC, 90 deg, 4" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elbow, Threaded, PVC, 90 deg x 1/2" dia. </t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrode, Welding, 1/8" x E6011 </t>
+  </si>
+  <si>
+    <t>Cancelled PO. Will issue PO per box 08.15.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrode, Welding, 1/8" x E6013 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 1.00 ltr
+</t>
+  </si>
+  <si>
+    <t>ltr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoxy, Concrete </t>
+  </si>
+  <si>
+    <t>tnks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extinguisher, Fire, 10 lbs, ABC Chemical </t>
+  </si>
+  <si>
+    <t>tnk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extinguisher, Fire, 10 lbs, HCFC - 123 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fan, Exhaust, Wall Mounted w/ Louvers, 32 Watts, 34cm x 34cm Diameter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faucet, Water, Brass, 1/2" </t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire Alarm Bell, 24V, Conventional </t>
+  </si>
+  <si>
+    <t>roll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire Alarm Cable, #16/4c and Smoke Detector Belden 4 core cable, 100mtrs/roll </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flashing, Box Type, 8" x 2" x 2" x 8" x 1" x 1" x 1" x 8 ft </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frame, Jalousie Window, High, 0.60m </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frame, Jalousie Window, High, 1m </t>
+  </si>
+  <si>
+    <t>schts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glue, Wood, 250g, (Brand: Stickwel) </t>
+  </si>
+  <si>
+    <t>cu. mtr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gravel 3/4 </t>
+  </si>
+  <si>
+    <t>PO Issued (12.00 cu. mtr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 1.00 pack
+</t>
+  </si>
+  <si>
+    <t>pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grout, Tile, Blue, 2kgs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hand Basin, Ceramic, with complete accessories </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handle, Knob </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 24.00 sets
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hinges, 1-1/2"  x 2-1/2" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 8.00 sets
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hinges, 1-1/2" x 2" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 4.00 sets
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hinges, 2" x 3" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 18.00 sets
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hinges, 4" x 4" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 1.00 pc
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hole Saw, 2.5 cm dia. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hole Saw, 4 cm dia. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalousie, Glass, Smoke Type, Long, 0.55cm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junction Box, PVC, Surface Type, 4", w/ Cover </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 36.00 lgths
+</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lumber, Good, S4S, 1" x 2' x 10 ft </t>
+  </si>
+  <si>
+    <t xml:space="preserve">09.17.2020 - Delivered DR# 1808
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lumber, S4S, 1" x 2" x 10ft </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual Call Point, 24V, Conventional </t>
+  </si>
+  <si>
+    <t>DG</t>
+  </si>
+  <si>
+    <t>Moulding, Lattice, 1/2" x 1" x 10 feet  - UNSERVED 16 lgths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 1.00 kg
+Rev. 1: 1.00 kg
+Rev. 2: 1.00 kg
+</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nails, Finishing, 1" </t>
+  </si>
+  <si>
+    <t>PO Issued (1.00 kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 3.00 kgs
+Rev. 1: 3.00 kgs
+Rev. 2: 3.00 kgs
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nails, Finishing, 2" </t>
+  </si>
+  <si>
+    <t>PO Issued (3.00 kgs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxygen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.25.2020 - Delivered DR# 1656
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 26.00 gals
+Rev. 1: 26.00 gals
+</t>
+  </si>
+  <si>
+    <t>gals</t>
+  </si>
+  <si>
+    <t>IY</t>
+  </si>
+  <si>
+    <t>Paint, Enamel, Flat Wall  - UNSERVED 13 gals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paint, Enamel, Gloss, Beige </t>
+  </si>
+  <si>
+    <t>gal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paint, Enamel, Gloss, Mocha Brown </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paint, Enamel, Quick Dry, Peach </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paint, Latex, Flat, White </t>
+  </si>
+  <si>
+    <t>For PO - AOQ Done (awarded)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paint, Latex, Gloss, White Sand (HH-5104 Boysen) </t>
+  </si>
+  <si>
+    <t>Paint, Primer, Metal, Red Oxide, 4L/gal  - UNSERVED 10 gals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paint, Quik Dry, Enamel, Abode Caterpillar Yellow </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paint, Quik Dry, Enamel, Aqua Marine Blue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paint, Quik Dry, Enamel, Beige </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paint, Quik Dry, Enamel, Bright Red </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paint, Quik Dry, Enamel, Caramel Brown </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paint, Quik Dry, Enamel, Orange </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paint, Quik Dry, Enamel, Pink </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photoelectric Smoke Detector, 24V, Conventional </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photoelectric Thermal (Heat)  Detector, 24V, Conventional </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pipe, PVC, 1/2" dia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pipe, PVC, 1/2" x 10' Color: Orange, Brand: Atlanta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pipe, PVC, 2" dia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pipe, PVC, 4" (Brand: Atlanta) </t>
+  </si>
+  <si>
+    <t>Plyboard, 3/4" x 4 ft x 8 ft  - UNSERVED 7 shts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 29.00 shts
+Rev. 1: 15.00 shts
+Rev. 2: 15.00 shts
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plywood, Ordinary, 1/4" x 4 ft x 8 ft </t>
+  </si>
+  <si>
+    <t>PO Issued (15.00 shts)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P-Trap, Lavatory, 1-1/2" dia. with Strainer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 2.00 pcs
+Rev. 1: 2.00 pcs
+Rev. 2: 2.00 pcs
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P-Trap, PVC, 2" </t>
+  </si>
+  <si>
+    <t>PO Issued (2.00 pcs)</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purlins, C, 1.2 mm, 2" x 3" x 20 ft </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.24.2020 - Delivered DR# 1635
+09.11.2020 - Delivered DR# 1792
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purlins, C, 1.2 mm, 2" x 4" x 20 ft </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purlins, C, 1.2 mm, 2" x 6" x 20 ft </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 1.00 bag
+</t>
+  </si>
+  <si>
+    <t>bag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Putty, Masonry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 4.00 pcs
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reducer, Tee, HDPE, 1" x 1/2" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rivets, Long Blind, Aluminum, 1/8" x 3/4" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rivets, Long, Blind, 1/8" x 3/4" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 7.00 gals
+</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>Roof Guard, Baguio Green (Brand: Boysen)  - UNSERVED 2 gals</t>
+  </si>
+  <si>
+    <t>cu. mtrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sand, Mixing </t>
+  </si>
+  <si>
+    <t>PO Issued (13.00 cu. mtrs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 15.00 shts
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandpaper, G100 </t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandpaper, G80 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">08.24.2020 - Delivered DR# 1761
+</t>
+  </si>
+  <si>
+    <t>lnr. mtrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screen, Nylon, 1.2 meter wide (for window screen) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screw, Metal, 1/4" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 1.00 gal
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sealant, Roof, (Brand: Vulcaseal) </t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>Sheet, GI, Corrugated, 8 ft x 80 cm x Gauge 0.4  - UNSERVED 16 shts</t>
+  </si>
+  <si>
+    <t>Sheet, GI, Corrugated, 10 ft x 80 cm x Gauge 0.4  - UNSERVED 30 shts</t>
+  </si>
+  <si>
+    <t>Sheet, GI, Corrugated, 12 ft x 80 cm x Gauge 0.4  - UNSERVED 16 shts</t>
+  </si>
+  <si>
+    <t>sht</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheet, GI, Plain, 4 ft x 8 ft x Gauge 1.0 </t>
+  </si>
+  <si>
+    <t>PO Issued (1.00 sht)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socket, Magnetic, 8mm </t>
+  </si>
+  <si>
+    <t>cans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solvent, PVC, 100 ml </t>
+  </si>
+  <si>
+    <t>Canvassing Ongoing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strainer, Floor Drain </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tee, Reducer, PVC, 4" x 2" dia. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tee, Threaded, PVC, 1/2" </t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thinner, Paint </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.16.2020 - Delivered DR# 1622
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tie Wire, #16 </t>
+  </si>
+  <si>
+    <t>PO Issued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 5.00 lgths
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tile Trim, Blue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 10.00 lgths
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tile Trim, White </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tile, Floor, 8" x 8", Sky Blue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiles, Floor, 12" x 12", Tulle White </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiles, Wall, 12" x 12", Tulle White </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 50.00 pcs
+Rev. 1: 50.00 pcs
+Rev. 2: 50.00 pcs
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tox w/ Screw, 1" long x 1/4" dia. </t>
+  </si>
+  <si>
+    <t>PO Issued (50.00 pcs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 10.00 lgths
+Rev. 1: 10.00 lgths
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tube, Square, 2" x 2" x 20 ft, Guage 1.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valve, Angle, 1/2" x 1/2" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valve, Ball, PVC Type, 1/2" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valve, Ball, Threaded, PVC, 1" dia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valve, Shower, with Shower Head </t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tape, Vinyl, Electrical, Big </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 20.00 lgths
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wood Moulding, Quarter Round, 1/2" x 1/2" </t>
   </si>
 </sst>
 </file>
@@ -109,7 +952,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -137,8 +980,17 @@
       <color rgb="FF000000"/>
       <name val="Arial Black"/>
     </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFff0000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,7 +1002,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFb9ffb9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFf3ff9e"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFcacaca"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -175,7 +1039,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -198,6 +1062,42 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="3" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="4" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -499,31 +1399,31 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="R135" sqref="R135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="25.85083" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="19.995117" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="28.135986" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="41.132813" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="26.993408" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="93.120117" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="65.983887" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="31.706543" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="23.422852" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -601,11 +1501,9 @@
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>22</v>
@@ -617,11 +1515,11 @@
         <v>24</v>
       </c>
       <c r="G5" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="4" t="s">
@@ -633,15 +1531,6271 @@
       <c r="M5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="O5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="5"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="6">
+        <v>24</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6">
+        <v>20</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6">
+        <v>6</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" s="5"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6">
+        <v>2</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R8" s="5"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10">
+        <v>1</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14">
+        <v>15</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" s="15"/>
+      <c r="O10" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" s="13"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10">
+        <v>30</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" s="9"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="10">
+        <v>9</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10">
+        <v>82</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N12" s="11"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10">
+        <v>74</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="N13" s="11"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" s="9"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="14">
+        <v>70</v>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N14" s="15"/>
+      <c r="O14" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R14" s="13"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6">
+        <v>1</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R15" s="5"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10">
+        <v>32</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="N16" s="11"/>
+      <c r="O16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R16" s="9"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6">
+        <v>8</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R17" s="5"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6">
+        <v>2</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" s="5"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6">
+        <v>3</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R19" s="5"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="6">
+        <v>19</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="6">
+        <v>7</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="6">
+        <v>8</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R21" s="5"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="6">
         <v>28</v>
       </c>
-      <c r="P5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R22" s="5"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="6">
+        <v>35</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R23" s="5"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="10">
+        <v>12</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10">
+        <v>138</v>
+      </c>
+      <c r="J24" s="10"/>
+      <c r="K24" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N24" s="11"/>
+      <c r="O24" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R24" s="9"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6">
+        <v>10</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R25" s="5"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="6">
+        <v>5</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="K26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R26" s="5"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="10">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9"/>
+      <c r="I27" s="10">
+        <v>2</v>
+      </c>
+      <c r="J27" s="10"/>
+      <c r="K27" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R27" s="9"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="6">
+        <v>2</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="6">
+        <v>8</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R28" s="5"/>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="6">
+        <v>61</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="6">
+        <v>7</v>
+      </c>
+      <c r="J29" s="6"/>
+      <c r="K29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R29" s="5"/>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="6">
+        <v>3</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="6">
+        <v>1</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R30" s="5"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="10">
+        <v>3</v>
+      </c>
+      <c r="H31" s="9"/>
+      <c r="I31" s="10">
+        <v>9</v>
+      </c>
+      <c r="J31" s="10"/>
+      <c r="K31" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O31" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R31" s="9"/>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="10">
+        <v>0</v>
+      </c>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10">
+        <v>9</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="N32" s="11"/>
+      <c r="O32" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R32" s="9"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="14">
+        <v>3</v>
+      </c>
+      <c r="H33" s="13"/>
+      <c r="I33" s="14">
+        <v>9</v>
+      </c>
+      <c r="J33" s="14"/>
+      <c r="K33" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="N33" s="15"/>
+      <c r="O33" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q33" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R33" s="13"/>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="6">
+        <v>24</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R34" s="5"/>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="18">
+        <v>6</v>
+      </c>
+      <c r="H35" s="17"/>
+      <c r="I35" s="18">
+        <v>3</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="L35" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M35" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="N35" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="O35" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="P35" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R35" s="17"/>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0</v>
+      </c>
+      <c r="H36" s="5"/>
+      <c r="I36" s="6">
+        <v>1</v>
+      </c>
+      <c r="J36" s="6"/>
+      <c r="K36" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R36" s="5"/>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0</v>
+      </c>
+      <c r="H37" s="5"/>
+      <c r="I37" s="6">
+        <v>2</v>
+      </c>
+      <c r="J37" s="6"/>
+      <c r="K37" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R37" s="5"/>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0</v>
+      </c>
+      <c r="H38" s="5"/>
+      <c r="I38" s="6">
+        <v>10</v>
+      </c>
+      <c r="J38" s="6"/>
+      <c r="K38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R38" s="5"/>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="6">
+        <v>17</v>
+      </c>
+      <c r="H39" s="5"/>
+      <c r="I39" s="6">
+        <v>8</v>
+      </c>
+      <c r="J39" s="6"/>
+      <c r="K39" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="N39" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R39" s="5"/>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" s="10">
+        <v>0</v>
+      </c>
+      <c r="H40" s="9"/>
+      <c r="I40" s="10">
+        <v>5</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O40" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P40" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R40" s="9"/>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0</v>
+      </c>
+      <c r="H41" s="5"/>
+      <c r="I41" s="6">
+        <v>7</v>
+      </c>
+      <c r="J41" s="6"/>
+      <c r="K41" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="N41" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R41" s="5"/>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="18">
+        <v>19</v>
+      </c>
+      <c r="H42" s="17"/>
+      <c r="I42" s="18">
+        <v>10</v>
+      </c>
+      <c r="J42" s="18"/>
+      <c r="K42" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="L42" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="M42" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="N42" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="O42" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="P42" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q42" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R42" s="17"/>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="18">
+        <v>22</v>
+      </c>
+      <c r="H43" s="17"/>
+      <c r="I43" s="18">
+        <v>11</v>
+      </c>
+      <c r="J43" s="18"/>
+      <c r="K43" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="L43" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="M43" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="N43" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="O43" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="P43" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q43" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R43" s="17"/>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0</v>
+      </c>
+      <c r="H44" s="5"/>
+      <c r="I44" s="6">
+        <v>1</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R44" s="5"/>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" s="10">
+        <v>2</v>
+      </c>
+      <c r="H45" s="9"/>
+      <c r="I45" s="10">
+        <v>2</v>
+      </c>
+      <c r="J45" s="10"/>
+      <c r="K45" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="N45" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O45" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P45" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q45" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R45" s="9"/>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="10">
+        <v>1</v>
+      </c>
+      <c r="H46" s="9"/>
+      <c r="I46" s="10">
+        <v>1</v>
+      </c>
+      <c r="J46" s="10"/>
+      <c r="K46" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O46" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P46" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q46" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R46" s="9"/>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" s="10">
+        <v>0</v>
+      </c>
+      <c r="H47" s="9"/>
+      <c r="I47" s="10">
+        <v>1</v>
+      </c>
+      <c r="J47" s="10"/>
+      <c r="K47" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O47" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P47" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q47" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R47" s="9"/>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="6">
+        <v>0</v>
+      </c>
+      <c r="H48" s="5"/>
+      <c r="I48" s="6">
+        <v>5</v>
+      </c>
+      <c r="J48" s="6"/>
+      <c r="K48" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="N48" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q48" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R48" s="5"/>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49" s="10">
+        <v>0</v>
+      </c>
+      <c r="H49" s="9"/>
+      <c r="I49" s="10">
+        <v>2</v>
+      </c>
+      <c r="J49" s="10"/>
+      <c r="K49" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="N49" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O49" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P49" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q49" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R49" s="9"/>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G50" s="10">
+        <v>0</v>
+      </c>
+      <c r="H50" s="9"/>
+      <c r="I50" s="10">
+        <v>1</v>
+      </c>
+      <c r="J50" s="10"/>
+      <c r="K50" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O50" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P50" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q50" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R50" s="9"/>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" s="10">
+        <v>0</v>
+      </c>
+      <c r="H51" s="9"/>
+      <c r="I51" s="10">
+        <v>38</v>
+      </c>
+      <c r="J51" s="10"/>
+      <c r="K51" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O51" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P51" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q51" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R51" s="9"/>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" s="10">
+        <v>0</v>
+      </c>
+      <c r="H52" s="9"/>
+      <c r="I52" s="10">
+        <v>3</v>
+      </c>
+      <c r="J52" s="10"/>
+      <c r="K52" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L52" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O52" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P52" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q52" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R52" s="9"/>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="10">
+        <v>0</v>
+      </c>
+      <c r="H53" s="9"/>
+      <c r="I53" s="10">
+        <v>14</v>
+      </c>
+      <c r="J53" s="10"/>
+      <c r="K53" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="N53" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O53" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P53" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q53" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R53" s="9"/>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0</v>
+      </c>
+      <c r="H54" s="5"/>
+      <c r="I54" s="6">
+        <v>14</v>
+      </c>
+      <c r="J54" s="6"/>
+      <c r="K54" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="N54" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="O54" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P54" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q54" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R54" s="5"/>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" s="10">
+        <v>0</v>
+      </c>
+      <c r="H55" s="9"/>
+      <c r="I55" s="10">
+        <v>12</v>
+      </c>
+      <c r="J55" s="10"/>
+      <c r="K55" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="N55" s="11"/>
+      <c r="O55" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="P55" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R55" s="9"/>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="6">
+        <v>0</v>
+      </c>
+      <c r="H56" s="5"/>
+      <c r="I56" s="6">
+        <v>1</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="N56" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O56" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P56" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q56" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R56" s="5"/>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" s="10">
+        <v>0</v>
+      </c>
+      <c r="H57" s="9"/>
+      <c r="I57" s="10">
+        <v>1</v>
+      </c>
+      <c r="J57" s="10"/>
+      <c r="K57" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L57" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="N57" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O57" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P57" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q57" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R57" s="9"/>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" s="10">
+        <v>0</v>
+      </c>
+      <c r="H58" s="9"/>
+      <c r="I58" s="10">
+        <v>32</v>
+      </c>
+      <c r="J58" s="10"/>
+      <c r="K58" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L58" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N58" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O58" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P58" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q58" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R58" s="9"/>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="A59" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0</v>
+      </c>
+      <c r="H59" s="5"/>
+      <c r="I59" s="6">
+        <v>24</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M59" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="N59" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O59" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P59" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q59" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R59" s="5"/>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G60" s="6">
+        <v>0</v>
+      </c>
+      <c r="H60" s="5"/>
+      <c r="I60" s="6">
+        <v>8</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M60" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="N60" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O60" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P60" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q60" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R60" s="5"/>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G61" s="6">
+        <v>0</v>
+      </c>
+      <c r="H61" s="5"/>
+      <c r="I61" s="6">
+        <v>4</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="N61" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O61" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P61" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q61" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R61" s="5"/>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62" s="6">
+        <v>6</v>
+      </c>
+      <c r="H62" s="5"/>
+      <c r="I62" s="6">
+        <v>18</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="N62" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O62" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P62" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q62" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R62" s="5"/>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="A63" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G63" s="6">
+        <v>0</v>
+      </c>
+      <c r="H63" s="5"/>
+      <c r="I63" s="6">
+        <v>1</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M63" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="N63" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O63" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P63" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q63" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R63" s="5"/>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="A64" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G64" s="6">
+        <v>0</v>
+      </c>
+      <c r="H64" s="5"/>
+      <c r="I64" s="6">
+        <v>1</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N64" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O64" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P64" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q64" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R64" s="5"/>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="A65" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" s="10">
+        <v>0</v>
+      </c>
+      <c r="H65" s="9"/>
+      <c r="I65" s="10">
+        <v>154</v>
+      </c>
+      <c r="J65" s="10"/>
+      <c r="K65" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M65" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="N65" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O65" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P65" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q65" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R65" s="9"/>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="A66" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G66" s="10">
+        <v>4</v>
+      </c>
+      <c r="H66" s="9"/>
+      <c r="I66" s="10">
+        <v>12</v>
+      </c>
+      <c r="J66" s="10"/>
+      <c r="K66" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L66" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M66" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="N66" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O66" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P66" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q66" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R66" s="9"/>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="A67" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G67" s="6">
+        <v>0</v>
+      </c>
+      <c r="H67" s="5"/>
+      <c r="I67" s="6">
+        <v>36</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="M67" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="N67" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="O67" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P67" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q67" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R67" s="5"/>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="A68" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G68" s="10">
+        <v>0</v>
+      </c>
+      <c r="H68" s="9"/>
+      <c r="I68" s="10">
+        <v>10</v>
+      </c>
+      <c r="J68" s="10"/>
+      <c r="K68" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L68" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M68" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="N68" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O68" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P68" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q68" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R68" s="9"/>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G69" s="10">
+        <v>0</v>
+      </c>
+      <c r="H69" s="9"/>
+      <c r="I69" s="10">
+        <v>2</v>
+      </c>
+      <c r="J69" s="10"/>
+      <c r="K69" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="N69" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O69" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P69" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q69" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R69" s="9"/>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G70" s="10">
+        <v>0</v>
+      </c>
+      <c r="H70" s="9"/>
+      <c r="I70" s="10">
+        <v>36</v>
+      </c>
+      <c r="J70" s="10"/>
+      <c r="K70" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L70" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="M70" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="N70" s="11"/>
+      <c r="O70" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="P70" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q70" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R70" s="9"/>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="A71" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G71" s="10">
+        <v>0</v>
+      </c>
+      <c r="H71" s="9"/>
+      <c r="I71" s="10">
+        <v>1</v>
+      </c>
+      <c r="J71" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="K71" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M71" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N71" s="11"/>
+      <c r="O71" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="P71" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q71" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R71" s="9"/>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="A72" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G72" s="10">
+        <v>0</v>
+      </c>
+      <c r="H72" s="9"/>
+      <c r="I72" s="10">
+        <v>3</v>
+      </c>
+      <c r="J72" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="K72" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L72" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M72" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="N72" s="11"/>
+      <c r="O72" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="P72" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q72" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R72" s="9"/>
+    </row>
+    <row r="73" spans="1:18">
+      <c r="A73" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G73" s="6">
+        <v>5</v>
+      </c>
+      <c r="H73" s="5"/>
+      <c r="I73" s="6">
+        <v>4</v>
+      </c>
+      <c r="J73" s="6"/>
+      <c r="K73" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M73" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="N73" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="O73" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P73" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q73" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R73" s="5"/>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="A74" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G74" s="14">
+        <v>0</v>
+      </c>
+      <c r="H74" s="13"/>
+      <c r="I74" s="14">
+        <v>26</v>
+      </c>
+      <c r="J74" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="K74" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="L74" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="M74" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="N74" s="15"/>
+      <c r="O74" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P74" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q74" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R74" s="13"/>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G75" s="10">
+        <v>0</v>
+      </c>
+      <c r="H75" s="9"/>
+      <c r="I75" s="10">
+        <v>4</v>
+      </c>
+      <c r="J75" s="10"/>
+      <c r="K75" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="L75" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M75" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="N75" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O75" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P75" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q75" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R75" s="9"/>
+    </row>
+    <row r="76" spans="1:18">
+      <c r="A76" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G76" s="10">
+        <v>0</v>
+      </c>
+      <c r="H76" s="9"/>
+      <c r="I76" s="10">
+        <v>1</v>
+      </c>
+      <c r="J76" s="10"/>
+      <c r="K76" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="L76" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M76" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="N76" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O76" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P76" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q76" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R76" s="9"/>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="A77" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G77" s="10">
+        <v>0</v>
+      </c>
+      <c r="H77" s="9"/>
+      <c r="I77" s="10">
+        <v>4</v>
+      </c>
+      <c r="J77" s="10"/>
+      <c r="K77" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="L77" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M77" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="N77" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O77" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P77" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q77" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R77" s="9"/>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="A78" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G78" s="10">
+        <v>0</v>
+      </c>
+      <c r="H78" s="9"/>
+      <c r="I78" s="10">
+        <v>2</v>
+      </c>
+      <c r="J78" s="10"/>
+      <c r="K78" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="L78" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="M78" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="N78" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="O78" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P78" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q78" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R78" s="9"/>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="A79" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G79" s="10">
+        <v>0</v>
+      </c>
+      <c r="H79" s="9"/>
+      <c r="I79" s="10">
+        <v>2</v>
+      </c>
+      <c r="J79" s="10"/>
+      <c r="K79" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="L79" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M79" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="N79" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O79" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P79" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q79" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R79" s="9"/>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="A80" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G80" s="14">
+        <v>0</v>
+      </c>
+      <c r="H80" s="13"/>
+      <c r="I80" s="14">
+        <v>20</v>
+      </c>
+      <c r="J80" s="14"/>
+      <c r="K80" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="L80" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M80" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="N80" s="15"/>
+      <c r="O80" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P80" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q80" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R80" s="13"/>
+    </row>
+    <row r="81" spans="1:18">
+      <c r="A81" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G81" s="10">
+        <v>0</v>
+      </c>
+      <c r="H81" s="9"/>
+      <c r="I81" s="10">
+        <v>3</v>
+      </c>
+      <c r="J81" s="10"/>
+      <c r="K81" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="L81" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M81" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="N81" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O81" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P81" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R81" s="9"/>
+    </row>
+    <row r="82" spans="1:18">
+      <c r="A82" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G82" s="10">
+        <v>0</v>
+      </c>
+      <c r="H82" s="9"/>
+      <c r="I82" s="10">
+        <v>3</v>
+      </c>
+      <c r="J82" s="10"/>
+      <c r="K82" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="L82" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M82" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="N82" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O82" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P82" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q82" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R82" s="9"/>
+    </row>
+    <row r="83" spans="1:18">
+      <c r="A83" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G83" s="10">
+        <v>0</v>
+      </c>
+      <c r="H83" s="9"/>
+      <c r="I83" s="10">
+        <v>3</v>
+      </c>
+      <c r="J83" s="10"/>
+      <c r="K83" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="L83" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M83" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="N83" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O83" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P83" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q83" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R83" s="9"/>
+    </row>
+    <row r="84" spans="1:18">
+      <c r="A84" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G84" s="10">
+        <v>0</v>
+      </c>
+      <c r="H84" s="9"/>
+      <c r="I84" s="10">
+        <v>3</v>
+      </c>
+      <c r="J84" s="10"/>
+      <c r="K84" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="L84" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M84" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="N84" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O84" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P84" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q84" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R84" s="9"/>
+    </row>
+    <row r="85" spans="1:18">
+      <c r="A85" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G85" s="10">
+        <v>0</v>
+      </c>
+      <c r="H85" s="9"/>
+      <c r="I85" s="10">
+        <v>3</v>
+      </c>
+      <c r="J85" s="10"/>
+      <c r="K85" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="L85" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M85" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="N85" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O85" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P85" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q85" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R85" s="9"/>
+    </row>
+    <row r="86" spans="1:18">
+      <c r="A86" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G86" s="10">
+        <v>0</v>
+      </c>
+      <c r="H86" s="9"/>
+      <c r="I86" s="10">
+        <v>3</v>
+      </c>
+      <c r="J86" s="10"/>
+      <c r="K86" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="L86" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M86" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="N86" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O86" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P86" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q86" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R86" s="9"/>
+    </row>
+    <row r="87" spans="1:18">
+      <c r="A87" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G87" s="10">
+        <v>0</v>
+      </c>
+      <c r="H87" s="9"/>
+      <c r="I87" s="10">
+        <v>3</v>
+      </c>
+      <c r="J87" s="10"/>
+      <c r="K87" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="L87" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M87" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="N87" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O87" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P87" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q87" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R87" s="9"/>
+    </row>
+    <row r="88" spans="1:18">
+      <c r="A88" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G88" s="10">
+        <v>0</v>
+      </c>
+      <c r="H88" s="9"/>
+      <c r="I88" s="10">
+        <v>8</v>
+      </c>
+      <c r="J88" s="10"/>
+      <c r="K88" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L88" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="M88" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="N88" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O88" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P88" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q88" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R88" s="9"/>
+    </row>
+    <row r="89" spans="1:18">
+      <c r="A89" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G89" s="10">
+        <v>0</v>
+      </c>
+      <c r="H89" s="9"/>
+      <c r="I89" s="10">
+        <v>1</v>
+      </c>
+      <c r="J89" s="10"/>
+      <c r="K89" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L89" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="M89" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="N89" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O89" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P89" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q89" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R89" s="9"/>
+    </row>
+    <row r="90" spans="1:18">
+      <c r="A90" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G90" s="6">
+        <v>0</v>
+      </c>
+      <c r="H90" s="5"/>
+      <c r="I90" s="6">
+        <v>10</v>
+      </c>
+      <c r="J90" s="6"/>
+      <c r="K90" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L90" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M90" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="N90" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O90" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P90" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q90" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R90" s="5"/>
+    </row>
+    <row r="91" spans="1:18">
+      <c r="A91" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G91" s="10">
+        <v>0</v>
+      </c>
+      <c r="H91" s="9"/>
+      <c r="I91" s="10">
+        <v>15</v>
+      </c>
+      <c r="J91" s="10"/>
+      <c r="K91" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L91" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M91" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="N91" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O91" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P91" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q91" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R91" s="9"/>
+    </row>
+    <row r="92" spans="1:18">
+      <c r="A92" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G92" s="6">
+        <v>0</v>
+      </c>
+      <c r="H92" s="5"/>
+      <c r="I92" s="6">
+        <v>11</v>
+      </c>
+      <c r="J92" s="6"/>
+      <c r="K92" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L92" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M92" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="N92" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O92" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P92" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q92" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R92" s="5"/>
+    </row>
+    <row r="93" spans="1:18">
+      <c r="A93" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G93" s="6">
+        <v>0</v>
+      </c>
+      <c r="H93" s="5"/>
+      <c r="I93" s="6">
+        <v>16</v>
+      </c>
+      <c r="J93" s="6"/>
+      <c r="K93" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L93" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M93" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="N93" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O93" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P93" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q93" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R93" s="5"/>
+    </row>
+    <row r="94" spans="1:18">
+      <c r="A94" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G94" s="14">
+        <v>0</v>
+      </c>
+      <c r="H94" s="13"/>
+      <c r="I94" s="14">
+        <v>17</v>
+      </c>
+      <c r="J94" s="14"/>
+      <c r="K94" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L94" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M94" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="N94" s="15"/>
+      <c r="O94" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P94" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q94" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R94" s="13"/>
+    </row>
+    <row r="95" spans="1:18">
+      <c r="A95" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G95" s="10">
+        <v>0</v>
+      </c>
+      <c r="H95" s="9"/>
+      <c r="I95" s="10">
+        <v>29</v>
+      </c>
+      <c r="J95" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="K95" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L95" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M95" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="N95" s="11"/>
+      <c r="O95" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="P95" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q95" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R95" s="9"/>
+    </row>
+    <row r="96" spans="1:18">
+      <c r="A96" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G96" s="10">
+        <v>1</v>
+      </c>
+      <c r="H96" s="9"/>
+      <c r="I96" s="10">
+        <v>1</v>
+      </c>
+      <c r="J96" s="10"/>
+      <c r="K96" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L96" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M96" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="N96" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O96" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P96" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q96" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R96" s="9"/>
+    </row>
+    <row r="97" spans="1:18">
+      <c r="A97" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G97" s="10">
+        <v>2</v>
+      </c>
+      <c r="H97" s="9"/>
+      <c r="I97" s="10">
+        <v>2</v>
+      </c>
+      <c r="J97" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="K97" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L97" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M97" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="N97" s="11"/>
+      <c r="O97" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="P97" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q97" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R97" s="9"/>
+    </row>
+    <row r="98" spans="1:18">
+      <c r="A98" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G98" s="6">
+        <v>0</v>
+      </c>
+      <c r="H98" s="5"/>
+      <c r="I98" s="6">
+        <v>37</v>
+      </c>
+      <c r="J98" s="6"/>
+      <c r="K98" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L98" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="M98" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="N98" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="O98" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P98" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q98" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R98" s="5"/>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="A99" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G99" s="6">
+        <v>0</v>
+      </c>
+      <c r="H99" s="5"/>
+      <c r="I99" s="6">
+        <v>40</v>
+      </c>
+      <c r="J99" s="6"/>
+      <c r="K99" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L99" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="M99" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="N99" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="O99" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P99" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q99" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R99" s="5"/>
+    </row>
+    <row r="100" spans="1:18">
+      <c r="A100" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G100" s="6">
+        <v>0</v>
+      </c>
+      <c r="H100" s="5"/>
+      <c r="I100" s="6">
+        <v>45</v>
+      </c>
+      <c r="J100" s="6"/>
+      <c r="K100" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L100" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="M100" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="N100" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="O100" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P100" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q100" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R100" s="5"/>
+    </row>
+    <row r="101" spans="1:18">
+      <c r="A101" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G101" s="6">
+        <v>0</v>
+      </c>
+      <c r="H101" s="5"/>
+      <c r="I101" s="6">
+        <v>1</v>
+      </c>
+      <c r="J101" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="K101" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="L101" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M101" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="N101" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O101" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P101" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q101" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R101" s="5"/>
+    </row>
+    <row r="102" spans="1:18">
+      <c r="A102" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G102" s="6">
+        <v>0</v>
+      </c>
+      <c r="H102" s="5"/>
+      <c r="I102" s="6">
+        <v>4</v>
+      </c>
+      <c r="J102" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="K102" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L102" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M102" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="N102" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O102" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P102" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q102" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R102" s="5"/>
+    </row>
+    <row r="103" spans="1:18">
+      <c r="A103" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G103" s="6">
+        <v>12</v>
+      </c>
+      <c r="H103" s="5"/>
+      <c r="I103" s="6">
+        <v>1</v>
+      </c>
+      <c r="J103" s="6"/>
+      <c r="K103" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L103" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M103" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="N103" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="O103" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P103" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q103" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R103" s="5"/>
+    </row>
+    <row r="104" spans="1:18">
+      <c r="A104" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G104" s="6">
+        <v>0</v>
+      </c>
+      <c r="H104" s="5"/>
+      <c r="I104" s="6">
+        <v>3</v>
+      </c>
+      <c r="J104" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="K104" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L104" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M104" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N104" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O104" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P104" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q104" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R104" s="5"/>
+    </row>
+    <row r="105" spans="1:18">
+      <c r="A105" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B105" s="13"/>
+      <c r="C105" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F105" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G105" s="14">
+        <v>0</v>
+      </c>
+      <c r="H105" s="13"/>
+      <c r="I105" s="14">
+        <v>7</v>
+      </c>
+      <c r="J105" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="K105" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="L105" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="M105" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="N105" s="15"/>
+      <c r="O105" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P105" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q105" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R105" s="13"/>
+    </row>
+    <row r="106" spans="1:18">
+      <c r="A106" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B106" s="9"/>
+      <c r="C106" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G106" s="10">
+        <v>0</v>
+      </c>
+      <c r="H106" s="9"/>
+      <c r="I106" s="10">
+        <v>13</v>
+      </c>
+      <c r="J106" s="10"/>
+      <c r="K106" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="L106" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M106" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="N106" s="11"/>
+      <c r="O106" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="P106" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q106" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R106" s="9"/>
+    </row>
+    <row r="107" spans="1:18">
+      <c r="A107" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G107" s="6">
+        <v>0</v>
+      </c>
+      <c r="H107" s="5"/>
+      <c r="I107" s="6">
+        <v>15</v>
+      </c>
+      <c r="J107" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K107" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L107" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M107" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="N107" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O107" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P107" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q107" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R107" s="5"/>
+    </row>
+    <row r="108" spans="1:18">
+      <c r="A108" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G108" s="6">
+        <v>25</v>
+      </c>
+      <c r="H108" s="5"/>
+      <c r="I108" s="6">
+        <v>70</v>
+      </c>
+      <c r="J108" s="6"/>
+      <c r="K108" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L108" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="M108" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="N108" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="O108" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P108" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q108" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R108" s="5"/>
+    </row>
+    <row r="109" spans="1:18">
+      <c r="A109" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G109" s="10">
+        <v>0</v>
+      </c>
+      <c r="H109" s="9"/>
+      <c r="I109" s="10">
+        <v>10</v>
+      </c>
+      <c r="J109" s="10"/>
+      <c r="K109" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="L109" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="M109" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="N109" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O109" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P109" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q109" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R109" s="9"/>
+    </row>
+    <row r="110" spans="1:18">
+      <c r="A110" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G110" s="10">
+        <v>0</v>
+      </c>
+      <c r="H110" s="9"/>
+      <c r="I110" s="10">
+        <v>35</v>
+      </c>
+      <c r="J110" s="10"/>
+      <c r="K110" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L110" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M110" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="N110" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O110" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P110" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q110" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R110" s="9"/>
+    </row>
+    <row r="111" spans="1:18">
+      <c r="A111" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G111" s="6">
+        <v>0</v>
+      </c>
+      <c r="H111" s="5"/>
+      <c r="I111" s="6">
+        <v>1</v>
+      </c>
+      <c r="J111" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="K111" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="L111" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M111" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="N111" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O111" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P111" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q111" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R111" s="5"/>
+    </row>
+    <row r="112" spans="1:18">
+      <c r="A112" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B112" s="13"/>
+      <c r="C112" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F112" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G112" s="14">
+        <v>0</v>
+      </c>
+      <c r="H112" s="13"/>
+      <c r="I112" s="14">
+        <v>31</v>
+      </c>
+      <c r="J112" s="14"/>
+      <c r="K112" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L112" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="M112" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="N112" s="15"/>
+      <c r="O112" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P112" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q112" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R112" s="13"/>
+    </row>
+    <row r="113" spans="1:18">
+      <c r="A113" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B113" s="13"/>
+      <c r="C113" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D113" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F113" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G113" s="14">
+        <v>0</v>
+      </c>
+      <c r="H113" s="13"/>
+      <c r="I113" s="14">
+        <v>60</v>
+      </c>
+      <c r="J113" s="14"/>
+      <c r="K113" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L113" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="M113" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="N113" s="15"/>
+      <c r="O113" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P113" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q113" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R113" s="13"/>
+    </row>
+    <row r="114" spans="1:18">
+      <c r="A114" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B114" s="13"/>
+      <c r="C114" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D114" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F114" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G114" s="14">
+        <v>0</v>
+      </c>
+      <c r="H114" s="13"/>
+      <c r="I114" s="14">
+        <v>31</v>
+      </c>
+      <c r="J114" s="14"/>
+      <c r="K114" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L114" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="M114" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="N114" s="15"/>
+      <c r="O114" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P114" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q114" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R114" s="13"/>
+    </row>
+    <row r="115" spans="1:18">
+      <c r="A115" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B115" s="9"/>
+      <c r="C115" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G115" s="10">
+        <v>0</v>
+      </c>
+      <c r="H115" s="9"/>
+      <c r="I115" s="10">
+        <v>1</v>
+      </c>
+      <c r="J115" s="10"/>
+      <c r="K115" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="L115" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="M115" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="N115" s="11"/>
+      <c r="O115" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="P115" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q115" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R115" s="9"/>
+    </row>
+    <row r="116" spans="1:18">
+      <c r="A116" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B116" s="9"/>
+      <c r="C116" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G116" s="10">
+        <v>0</v>
+      </c>
+      <c r="H116" s="9"/>
+      <c r="I116" s="10">
+        <v>2</v>
+      </c>
+      <c r="J116" s="10"/>
+      <c r="K116" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L116" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M116" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="N116" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O116" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P116" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q116" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R116" s="9"/>
+    </row>
+    <row r="117" spans="1:18">
+      <c r="A117" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B117" s="9"/>
+      <c r="C117" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G117" s="10">
+        <v>0</v>
+      </c>
+      <c r="H117" s="9"/>
+      <c r="I117" s="10">
+        <v>4</v>
+      </c>
+      <c r="J117" s="10"/>
+      <c r="K117" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="L117" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M117" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="N117" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="O117" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P117" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R117" s="9"/>
+    </row>
+    <row r="118" spans="1:18">
+      <c r="A118" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B118" s="9"/>
+      <c r="C118" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G118" s="10">
+        <v>0</v>
+      </c>
+      <c r="H118" s="9"/>
+      <c r="I118" s="10">
+        <v>6</v>
+      </c>
+      <c r="J118" s="10"/>
+      <c r="K118" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L118" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M118" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="N118" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O118" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P118" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q118" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R118" s="9"/>
+    </row>
+    <row r="119" spans="1:18">
+      <c r="A119" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G119" s="6">
+        <v>1</v>
+      </c>
+      <c r="H119" s="5"/>
+      <c r="I119" s="6">
+        <v>5</v>
+      </c>
+      <c r="J119" s="6"/>
+      <c r="K119" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L119" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M119" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="N119" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O119" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P119" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q119" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R119" s="5"/>
+    </row>
+    <row r="120" spans="1:18">
+      <c r="A120" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G120" s="6">
+        <v>0</v>
+      </c>
+      <c r="H120" s="5"/>
+      <c r="I120" s="6">
+        <v>2</v>
+      </c>
+      <c r="J120" s="6"/>
+      <c r="K120" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L120" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M120" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="N120" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O120" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P120" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q120" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R120" s="5"/>
+    </row>
+    <row r="121" spans="1:18">
+      <c r="A121" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G121" s="6">
+        <v>3</v>
+      </c>
+      <c r="H121" s="5"/>
+      <c r="I121" s="6">
+        <v>9</v>
+      </c>
+      <c r="J121" s="6"/>
+      <c r="K121" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="L121" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="M121" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="N121" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="O121" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P121" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q121" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R121" s="5"/>
+    </row>
+    <row r="122" spans="1:18">
+      <c r="A122" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B122" s="9"/>
+      <c r="C122" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G122" s="10">
+        <v>0</v>
+      </c>
+      <c r="H122" s="9"/>
+      <c r="I122" s="10">
+        <v>24</v>
+      </c>
+      <c r="J122" s="10"/>
+      <c r="K122" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L122" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M122" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="N122" s="11"/>
+      <c r="O122" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="P122" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q122" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R122" s="9"/>
+    </row>
+    <row r="123" spans="1:18">
+      <c r="A123" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G123" s="6">
+        <v>0</v>
+      </c>
+      <c r="H123" s="5"/>
+      <c r="I123" s="6">
+        <v>5</v>
+      </c>
+      <c r="J123" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="K123" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L123" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M123" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="N123" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O123" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P123" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q123" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R123" s="5"/>
+    </row>
+    <row r="124" spans="1:18">
+      <c r="A124" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G124" s="6">
+        <v>0</v>
+      </c>
+      <c r="H124" s="5"/>
+      <c r="I124" s="6">
+        <v>10</v>
+      </c>
+      <c r="J124" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="K124" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L124" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M124" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N124" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O124" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P124" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q124" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R124" s="5"/>
+    </row>
+    <row r="125" spans="1:18">
+      <c r="A125" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B125" s="9"/>
+      <c r="C125" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G125" s="10">
+        <v>0</v>
+      </c>
+      <c r="H125" s="9"/>
+      <c r="I125" s="10">
+        <v>130</v>
+      </c>
+      <c r="J125" s="10"/>
+      <c r="K125" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L125" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="M125" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="N125" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O125" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P125" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q125" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R125" s="9"/>
+    </row>
+    <row r="126" spans="1:18">
+      <c r="A126" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B126" s="9"/>
+      <c r="C126" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G126" s="10">
+        <v>0</v>
+      </c>
+      <c r="H126" s="9"/>
+      <c r="I126" s="10">
+        <v>200</v>
+      </c>
+      <c r="J126" s="10"/>
+      <c r="K126" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L126" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="M126" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="N126" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O126" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P126" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q126" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R126" s="9"/>
+    </row>
+    <row r="127" spans="1:18">
+      <c r="A127" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B127" s="9"/>
+      <c r="C127" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G127" s="10">
+        <v>0</v>
+      </c>
+      <c r="H127" s="9"/>
+      <c r="I127" s="10">
+        <v>60</v>
+      </c>
+      <c r="J127" s="10"/>
+      <c r="K127" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L127" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M127" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="N127" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O127" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P127" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q127" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R127" s="9"/>
+    </row>
+    <row r="128" spans="1:18">
+      <c r="A128" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B128" s="9"/>
+      <c r="C128" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G128" s="10">
+        <v>0</v>
+      </c>
+      <c r="H128" s="9"/>
+      <c r="I128" s="10">
+        <v>50</v>
+      </c>
+      <c r="J128" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="K128" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L128" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M128" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="N128" s="11"/>
+      <c r="O128" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="P128" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q128" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R128" s="9"/>
+    </row>
+    <row r="129" spans="1:18">
+      <c r="A129" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G129" s="6">
+        <v>0</v>
+      </c>
+      <c r="H129" s="5"/>
+      <c r="I129" s="6">
+        <v>10</v>
+      </c>
+      <c r="J129" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="K129" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L129" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M129" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="N129" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="O129" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P129" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q129" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R129" s="5"/>
+    </row>
+    <row r="130" spans="1:18">
+      <c r="A130" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B130" s="9"/>
+      <c r="C130" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G130" s="10">
+        <v>0</v>
+      </c>
+      <c r="H130" s="9"/>
+      <c r="I130" s="10">
+        <v>3</v>
+      </c>
+      <c r="J130" s="10"/>
+      <c r="K130" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L130" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M130" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="N130" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O130" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P130" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q130" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R130" s="9"/>
+    </row>
+    <row r="131" spans="1:18">
+      <c r="A131" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G131" s="6">
+        <v>1</v>
+      </c>
+      <c r="H131" s="5"/>
+      <c r="I131" s="6">
+        <v>4</v>
+      </c>
+      <c r="J131" s="6"/>
+      <c r="K131" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L131" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M131" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="N131" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O131" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P131" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q131" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R131" s="5"/>
+    </row>
+    <row r="132" spans="1:18">
+      <c r="A132" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G132" s="6">
+        <v>0</v>
+      </c>
+      <c r="H132" s="5"/>
+      <c r="I132" s="6">
+        <v>1</v>
+      </c>
+      <c r="J132" s="6"/>
+      <c r="K132" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L132" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M132" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="N132" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O132" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P132" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q132" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R132" s="5"/>
+    </row>
+    <row r="133" spans="1:18">
+      <c r="A133" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B133" s="9"/>
+      <c r="C133" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G133" s="10">
+        <v>9</v>
+      </c>
+      <c r="H133" s="9"/>
+      <c r="I133" s="10">
+        <v>1</v>
+      </c>
+      <c r="J133" s="10"/>
+      <c r="K133" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L133" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M133" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="N133" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O133" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P133" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R133" s="9"/>
+    </row>
+    <row r="134" spans="1:18">
+      <c r="A134" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B134" s="9"/>
+      <c r="C134" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G134" s="10">
+        <v>18</v>
+      </c>
+      <c r="H134" s="9"/>
+      <c r="I134" s="10">
+        <v>3</v>
+      </c>
+      <c r="J134" s="10"/>
+      <c r="K134" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L134" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M134" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="N134" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O134" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P134" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q134" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R134" s="9"/>
+    </row>
+    <row r="135" spans="1:18">
+      <c r="A135" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G135" s="6">
+        <v>0</v>
+      </c>
+      <c r="H135" s="5"/>
+      <c r="I135" s="6">
+        <v>20</v>
+      </c>
+      <c r="J135" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K135" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L135" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M135" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="N135" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O135" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P135" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q135" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R135" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/PR Summary.xlsx
+++ b/PR Summary.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
-  <si>
-    <t>PR Summary 2020</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="199">
+  <si>
+    <t>PR Summary 2019</t>
   </si>
   <si>
     <t>PURCHASE REQUEST</t>
@@ -77,47 +77,594 @@
     <t>End User's Comments</t>
   </si>
   <si>
-    <t>2020-01-06</t>
-  </si>
-  <si>
-    <t>Manila/Bacolod</t>
-  </si>
-  <si>
-    <t>Construction of CENPRI Canteen Additional to Supersede FR-544-2019, Item # 6</t>
-  </si>
-  <si>
-    <t>CENPRI Canteen</t>
-  </si>
-  <si>
-    <t>SPE20-1178-CNPR</t>
-  </si>
-  <si>
-    <t>Iris J. Sixto</t>
-  </si>
-  <si>
-    <t>pcs</t>
+    <t>2019-04-04</t>
+  </si>
+  <si>
+    <t>Bacolod</t>
+  </si>
+  <si>
+    <t>Construction of CENPRI Canteen</t>
+  </si>
+  <si>
+    <t>CENPRI Employees</t>
+  </si>
+  <si>
+    <t>SPE19-1065-CNPR</t>
+  </si>
+  <si>
+    <t>Iris J. Sixto/Irish Dawn E. Torres</t>
+  </si>
+  <si>
+    <t>bags</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Cement, Portland  - UNSERVED 4 bag</t>
+  </si>
+  <si>
+    <t>Partially Delivered</t>
+  </si>
+  <si>
+    <t>2019-11-29</t>
+  </si>
+  <si>
+    <t>FR-168-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 36.00 lengths
+</t>
+  </si>
+  <si>
+    <t>lengths</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar, Steel, Deformed/Corrugated, 10mm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.20.2019 - Delivered DR# 1055-CNPR
+</t>
+  </si>
+  <si>
+    <t>Fully Delivered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 6.00 m?
+Rev. 1: 6.00 m?
+</t>
+  </si>
+  <si>
+    <t>m?</t>
+  </si>
+  <si>
+    <t>Gravel, 3/4  - UNSERVED 1.68 m³</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 40.00 pcs.
+</t>
+  </si>
+  <si>
+    <t>pcs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block, Hallow, Concrete, 4" x 8" x 16" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.28.2019 - Delivered DR# 1071-CNPR
+12.03.2019 - Delivered DR# 1114-CNPR
+</t>
+  </si>
+  <si>
+    <t>2019-11-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 3.00 m?
+Rev. 1: 3.00 m?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sand, Mixing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.26.2019 - Delivered DR# 1070-CNPR
+</t>
+  </si>
+  <si>
+    <t>sheets</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Board, Hardiflex, 1/4" x 4' x 8' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.03.2019 - Delivered DR# 1107-CNPR
+12.19.2019 - Delivered DR# 1162-CNPR
+</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purlins, C, 2" x 3" x 6m x 0.1 </t>
+  </si>
+  <si>
+    <t>Superseded by PR No:SPE19-1146, with changes in quantity from 24 lengths to 9 lengths. 11.26.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Door, Flush, 80cm x 210cm </t>
+  </si>
+  <si>
+    <t>Canvassing Ongoing</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>2019-11-22</t>
+  </si>
+  <si>
+    <t>pc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Door, UPVC, Flush, 60cm x 210cm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 1.00 set
+</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Door, Jamb, 2"x 4" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.03.2019 - Delivered DR# 1107-CNPR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 5.00 sets
+</t>
+  </si>
+  <si>
+    <t>sets</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Door Knob </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.20.2019 - Delivered DR# 1173-CNPR
+</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar, Angle, 1/4" x 1-1/2" x 1-1/2" x 6m </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AOQ Done - For TE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 2.00 sets
+</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frame, Jalousie Window, High, 1m </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.19.2019 - Delivered DR# 1149-CNPR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 22.00 pcs.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalousie, Glass, Smoke Type, Long, 55cm Thick </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purlins, C, 1.0 mm, 2" x 3" x 6m </t>
+  </si>
+  <si>
+    <t>Cancelled item - same item on item # 7 11.19.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 3.00 sheets
+Rev. 1: 3.00 sheets
+</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Plywood, Marine, 3/4" x 4' x 8'  - UNSERVED 1 sheets</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lumber, S4S, 1" x 4" x 6' </t>
+  </si>
+  <si>
+    <t>For RFQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lumber, S4S, 1" x 2" x 8' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 46.00 pcs.
+</t>
+  </si>
+  <si>
+    <t>BW</t>
+  </si>
+  <si>
+    <t>Chair, Stool, Monoblock, Plastic  - UNSERVED 16 pcs.</t>
+  </si>
+  <si>
+    <t>rolls</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Insulator, Tarp Foil, Roof, 1 Meter Width  - UNSERVED 1 rolls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 3.00 gals.
+</t>
+  </si>
+  <si>
+    <t>gals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rugby, Contact Cement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.16.2019 - Delivered DR# 1151-CNPR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 88.00 pcs.
+</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Tiles, Floor, 8" x 8"  - UNSERVED 52 pcs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiles, Floor, 12" x 12" </t>
+  </si>
+  <si>
+    <t>Change in specs. Will PO 88 pcs. only for 20 cm x 30 cm. 01.07.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiles, Wall, 8" X 8" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiles, Wall, 12" x 12" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toilet Bowl, w/ Tank &amp; Cover </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.03.2019 - Delivered DR# 1108-CNPR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holder, Toilet Paper </t>
+  </si>
+  <si>
+    <t>Cancelled by End user via Phone call, reflected on email thread as of 11.28.19 11.28.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 2.00 sets
+Rev. 1: 2.00 sets
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basin, Hand, w/ Complete Fittings (P-trap and Faucets) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.20.2019 - Delivered DR# 1178-CNPR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 9.00 lengths
+Rev. 1: 9.00 lengths
+</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tile Trim </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.16.2020 - Delivered DR# 1242-CNPR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 5.00 pcs.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elbow, PVC, 90 degrees, 1/2" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 2.00 pcs.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adaptor, Female, PVC, 1/2" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 6.00 pcs.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elbow, PVC, 90 deg, 4" </t>
+  </si>
+  <si>
+    <t>End user advised to cancel item#s: 3, 5 and 6 c/o Ms. Joy Bating via Hang out. Thus, created new Purchase Order to supersede under # PSPE19-1065-1119 11.28.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tee, Reducer, PVC, 4" x 2" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 4.00 pcs.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strainer, Floor, Stainless Steel, 2? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 3.00 pcs.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Faucet, Brass </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 1.00 pc.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valve, Ball, PVC, 1/2" </t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire Hose Reel Cabinet, Mild Steel/Stainless Steel w/ Fire Hose Reel, 1" x 30m, Complete Accessories, 150 psi, Size of Cabinet: 750mmx 750mmx 250mm </t>
+  </si>
+  <si>
+    <t>tanks</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Fire extinguisher, 10 lbs, ABC Chemical  - UNSERVED 1 tanks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 4.00 lengths
+Rev. 1: 4.00 lengths
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pipe, Black Iron 2" diameter,  Schedule 40 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">02.04.2020 - Delivered DR# 1293-CNPR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pipe, Black Iron, 1-1/4" diameter,  Schedule 40 </t>
+  </si>
+  <si>
+    <t>For PO - AOQ Done (awarded)</t>
   </si>
   <si>
     <t>Q</t>
   </si>
   <si>
-    <t xml:space="preserve">Tee, HDPE, 1" X 1" (Pipe Connector) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.11.2020 - Delivered DR# 1228-CNPR
+    <t>Elbow, Black Iron, Schedule 40, 2" x 90 deg.  - UNSERVED 4 pcs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elbow, Black Iron, Schedule 40, 1-1/4" x 90 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flange, Black Iron, 2" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.31.2020 - Delivered DR# 1282-CNPR
 </t>
   </si>
   <si>
-    <t>Fully Delivered</t>
-  </si>
-  <si>
-    <t>2020-01-09</t>
-  </si>
-  <si>
-    <t>FR-002-2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reducer, Coupling, HDPE, 1" X 1/2" (Pipe Connector) </t>
+    <t>C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar, Angle, 1/4" x 1" x 1" x 6m </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.29.2019 - Delivered DR# 1095-CNPR
+</t>
+  </si>
+  <si>
+    <t>gal.</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paint, Primer, Epoxy, Gray </t>
+  </si>
+  <si>
+    <t xml:space="preserve">02.07.2020 - Delivered DR# 1300-CNPR
+</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thinner, Lacquer </t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brush, Paint, 2" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.19.2019 - Delivered DR# 1155-CNPR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoxy, Top Coat, Red </t>
+  </si>
+  <si>
+    <t xml:space="preserve">02.06.2020 - Delivered DR# 1295-CNPR
+</t>
+  </si>
+  <si>
+    <t>cyl.</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acetylene </t>
+  </si>
+  <si>
+    <t>Processed manually because of System error dated 11/13/19 ; AM, with PO No: FR-168-5001 delivered to site as of 11.14.19 under DR#4931 11.18.19</t>
+  </si>
+  <si>
+    <t>cyls.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxygen </t>
+  </si>
+  <si>
+    <t>Processed manually because of System error dated 11/13/19 ; AM, with PO No: FR-168-5002 delivered to site as of 11.14.19 under DR#4932 11.18.19</t>
+  </si>
+  <si>
+    <t>roll</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tape, PTFE, Industrial, 3/4", (Teflon) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">02.06.2020 - Delivered DR# 1281-CNPR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brush, Roller, 4",  with Handle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disc, Cutting, 4" </t>
+  </si>
+  <si>
+    <t>Processed manually because of System error dated 11/13/19 ; AM, with PO No: FR-168-5003 delivered to site as of 11.14.19 under DR#4933 11.18.19</t>
+  </si>
+  <si>
+    <t>kgs.</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nail, Common, 2-1/2" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.09.2019 - Delivered DR# 1125-CNPR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nail, Common, 1" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tie Wire, #16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.29.2019 - Delivered DR# 1097-CNPR
+12.19.2019 - Delivered DR# 1165-CNPR
+</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrode, Welding, 1/8" x E6011 </t>
+  </si>
+  <si>
+    <t>Cancelled PO. Item Not needed for the project. 06.01.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrode, Welding, 1/8" x E6013 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disc, Grinding, 4" x 1/4" x 5/8" </t>
+  </si>
+  <si>
+    <t>Disc, Cutting, Diamond, 4"  - UNSERVED 1 pcs.</t>
+  </si>
+  <si>
+    <t>pairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gloves, Working, Ma-ong </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.09.2019 - Delivered DR# 1109-CNPR
+</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sealant, Roof, (Vulcaseal) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.16.2019 - Delivered DR# 1148-CNPR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compound, Grout, Tile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adhesive, Tile </t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drill Bit, Metal, 1/8" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.22.2019 - Delivered DR# 1064-CNPR
+</t>
   </si>
 </sst>
 </file>
@@ -125,7 +672,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -153,8 +700,17 @@
       <color rgb="FF000000"/>
       <name val="Arial Black"/>
     </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFff0000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,7 +722,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFf3ff9e"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFb9ffb9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFcacaca"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -191,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -214,6 +782,42 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="3" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="4" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -515,29 +1119,29 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="R69" sqref="R69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="25.85083" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="90.692139" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="36.419678" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="19.995117" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="18.709717" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="41.132813" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="4.570313" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="24.708252" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="9.283447" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="62.41333" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="43.560791" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="175.671387" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="187.525635" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="23.422852" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="23.422852" bestFit="true" customWidth="true" style="0"/>
@@ -637,7 +1241,7 @@
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="6">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="4" t="s">
@@ -649,69 +1253,3245 @@
       <c r="M5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="7"/>
+      <c r="O5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="P5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="Q5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="5"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10">
+        <v>36</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="R5" s="5"/>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6">
+      <c r="K6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" s="9"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14">
+        <v>6</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="15"/>
+      <c r="O7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" s="13"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10">
+        <v>40</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10">
+        <v>3</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10">
+        <v>13</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14">
+        <v>24</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" s="13"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="18">
+        <v>0</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18">
         <v>4</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="4" t="s">
+      <c r="J12" s="18"/>
+      <c r="K12" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="O12" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R12" s="17"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="18">
+        <v>0</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18">
+        <v>1</v>
+      </c>
+      <c r="J13" s="18"/>
+      <c r="K13" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" s="17"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10">
+        <v>1</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R14" s="9"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="10">
+        <v>5</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R15" s="9"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="18">
+        <v>0</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="18">
+        <v>10</v>
+      </c>
+      <c r="J16" s="18"/>
+      <c r="K16" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="M16" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="O16" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q16" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R16" s="17"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10">
+        <v>2</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R17" s="9"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10">
+        <v>22</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" s="9"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="14">
+        <v>0</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="14">
+        <v>5</v>
+      </c>
+      <c r="J19" s="14"/>
+      <c r="K19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P19" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R19" s="13"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="6">
+        <v>7</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="N20" s="7"/>
+      <c r="O20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="18">
+        <v>0</v>
+      </c>
+      <c r="H21" s="17"/>
+      <c r="I21" s="18">
+        <v>7</v>
+      </c>
+      <c r="J21" s="18"/>
+      <c r="K21" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="M21" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="N21" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="O21" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P21" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q21" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R21" s="17"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="18">
+        <v>0</v>
+      </c>
+      <c r="H22" s="17"/>
+      <c r="I22" s="18">
+        <v>10</v>
+      </c>
+      <c r="J22" s="18"/>
+      <c r="K22" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="M22" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="N22" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="O22" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q22" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R22" s="17"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="6">
+        <v>46</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="N23" s="7"/>
+      <c r="O23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R23" s="5"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="6">
+        <v>2</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R24" s="5"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="10">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="10">
+        <v>3</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R25" s="9"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="6">
+        <v>140</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N26" s="7"/>
+      <c r="O26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R26" s="5"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="14">
+        <v>0</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="I27" s="14">
+        <v>33</v>
+      </c>
+      <c r="J27" s="14"/>
+      <c r="K27" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="N27" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="O27" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P27" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q27" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R27" s="13"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="14">
+        <v>0</v>
+      </c>
+      <c r="H28" s="13"/>
+      <c r="I28" s="14">
+        <v>55</v>
+      </c>
+      <c r="J28" s="14"/>
+      <c r="K28" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="N28" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="O28" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P28" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R28" s="13"/>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="14">
+        <v>0</v>
+      </c>
+      <c r="H29" s="13"/>
+      <c r="I29" s="14">
+        <v>17</v>
+      </c>
+      <c r="J29" s="14"/>
+      <c r="K29" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="N29" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="O29" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P29" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q29" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R29" s="13"/>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="10">
+        <v>0</v>
+      </c>
+      <c r="H30" s="9"/>
+      <c r="I30" s="10">
+        <v>1</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R30" s="9"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="14">
+        <v>0</v>
+      </c>
+      <c r="H31" s="13"/>
+      <c r="I31" s="14">
+        <v>2</v>
+      </c>
+      <c r="J31" s="14"/>
+      <c r="K31" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="N31" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="O31" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P31" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R31" s="13"/>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="10">
+        <v>0</v>
+      </c>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10">
+        <v>2</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R32" s="9"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="10">
+        <v>0</v>
+      </c>
+      <c r="H33" s="9"/>
+      <c r="I33" s="10">
+        <v>9</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P33" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R33" s="9"/>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="10">
+        <v>0</v>
+      </c>
+      <c r="H34" s="9"/>
+      <c r="I34" s="10">
+        <v>5</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q34" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R34" s="9"/>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="10">
+        <v>0</v>
+      </c>
+      <c r="H35" s="9"/>
+      <c r="I35" s="10">
+        <v>2</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O35" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P35" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R35" s="9"/>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="14">
+        <v>0</v>
+      </c>
+      <c r="H36" s="13"/>
+      <c r="I36" s="14">
+        <v>6</v>
+      </c>
+      <c r="J36" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L36" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="M36" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="N36" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="O36" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P36" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q36" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R36" s="13"/>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="14">
+        <v>0</v>
+      </c>
+      <c r="H37" s="13"/>
+      <c r="I37" s="14">
+        <v>5</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="N37" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="O37" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P37" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q37" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R37" s="13"/>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="10">
+        <v>0</v>
+      </c>
+      <c r="H38" s="9"/>
+      <c r="I38" s="10">
+        <v>4</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O38" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P38" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q38" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R38" s="9"/>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="10">
+        <v>0</v>
+      </c>
+      <c r="H39" s="9"/>
+      <c r="I39" s="10">
+        <v>3</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O39" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P39" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q39" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R39" s="9"/>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="10">
+        <v>0</v>
+      </c>
+      <c r="H40" s="9"/>
+      <c r="I40" s="10">
+        <v>1</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O40" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P40" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R40" s="9"/>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="18">
+        <v>0</v>
+      </c>
+      <c r="H41" s="17"/>
+      <c r="I41" s="18">
+        <v>1</v>
+      </c>
+      <c r="J41" s="18"/>
+      <c r="K41" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="L41" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="M41" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="N41" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="O41" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P41" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q41" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R41" s="17"/>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0</v>
+      </c>
+      <c r="H42" s="5"/>
+      <c r="I42" s="6">
+        <v>3</v>
+      </c>
+      <c r="J42" s="6"/>
+      <c r="K42" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="N42" s="7"/>
+      <c r="O42" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q42" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R42" s="5"/>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="10">
+        <v>0</v>
+      </c>
+      <c r="H43" s="9"/>
+      <c r="I43" s="10">
+        <v>4</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="O43" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P43" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q43" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R43" s="9"/>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" s="18">
+        <v>0</v>
+      </c>
+      <c r="H44" s="17"/>
+      <c r="I44" s="18">
+        <v>3</v>
+      </c>
+      <c r="J44" s="18"/>
+      <c r="K44" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L44" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="M44" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="N44" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="O44" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P44" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q44" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R44" s="17"/>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0</v>
+      </c>
+      <c r="H45" s="5"/>
+      <c r="I45" s="6">
+        <v>10</v>
+      </c>
+      <c r="J45" s="6"/>
+      <c r="K45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="N45" s="7"/>
+      <c r="O45" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R45" s="5"/>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" s="18">
+        <v>0</v>
+      </c>
+      <c r="H46" s="17"/>
+      <c r="I46" s="18">
+        <v>5</v>
+      </c>
+      <c r="J46" s="18"/>
+      <c r="K46" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L46" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M46" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="N46" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="O46" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P46" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q46" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R46" s="17"/>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="10">
+        <v>0</v>
+      </c>
+      <c r="H47" s="9"/>
+      <c r="I47" s="10">
+        <v>10</v>
+      </c>
+      <c r="J47" s="10"/>
+      <c r="K47" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="O47" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P47" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q47" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R47" s="9"/>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" s="10">
+        <v>0</v>
+      </c>
+      <c r="H48" s="9"/>
+      <c r="I48" s="10">
+        <v>2</v>
+      </c>
+      <c r="J48" s="10"/>
+      <c r="K48" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="N48" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="O48" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P48" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q48" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R48" s="9"/>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" s="10">
+        <v>0</v>
+      </c>
+      <c r="H49" s="9"/>
+      <c r="I49" s="10">
+        <v>1</v>
+      </c>
+      <c r="J49" s="10"/>
+      <c r="K49" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="N49" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="O49" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P49" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q49" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R49" s="9"/>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" s="10">
+        <v>0</v>
+      </c>
+      <c r="H50" s="9"/>
+      <c r="I50" s="10">
+        <v>1</v>
+      </c>
+      <c r="J50" s="10"/>
+      <c r="K50" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N50" s="11"/>
+      <c r="O50" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P50" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q50" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R50" s="9"/>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" s="10">
+        <v>0</v>
+      </c>
+      <c r="H51" s="9"/>
+      <c r="I51" s="10">
+        <v>5</v>
+      </c>
+      <c r="J51" s="10"/>
+      <c r="K51" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="O51" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P51" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q51" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R51" s="9"/>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="10">
+        <v>0</v>
+      </c>
+      <c r="H52" s="9"/>
+      <c r="I52" s="10">
+        <v>1</v>
+      </c>
+      <c r="J52" s="10"/>
+      <c r="K52" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="L52" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="O52" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P52" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q52" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R52" s="9"/>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G53" s="14">
+        <v>0</v>
+      </c>
+      <c r="H53" s="13"/>
+      <c r="I53" s="14">
+        <v>0</v>
+      </c>
+      <c r="J53" s="14"/>
+      <c r="K53" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="L53" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="M53" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="N53" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="O53" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P53" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q53" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R53" s="13"/>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G54" s="14">
+        <v>0</v>
+      </c>
+      <c r="H54" s="13"/>
+      <c r="I54" s="14">
+        <v>0</v>
+      </c>
+      <c r="J54" s="14"/>
+      <c r="K54" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="L54" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="M54" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="N54" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="O54" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P54" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q54" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R54" s="13"/>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G55" s="10">
+        <v>0</v>
+      </c>
+      <c r="H55" s="9"/>
+      <c r="I55" s="10">
+        <v>1</v>
+      </c>
+      <c r="J55" s="10"/>
+      <c r="K55" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="N55" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="O55" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P55" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R55" s="9"/>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" s="10">
+        <v>0</v>
+      </c>
+      <c r="H56" s="9"/>
+      <c r="I56" s="10">
+        <v>10</v>
+      </c>
+      <c r="J56" s="10"/>
+      <c r="K56" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L56" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="N56" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="O56" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P56" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q56" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R56" s="9"/>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G57" s="14">
+        <v>0</v>
+      </c>
+      <c r="H57" s="13"/>
+      <c r="I57" s="14">
+        <v>0</v>
+      </c>
+      <c r="J57" s="14"/>
+      <c r="K57" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L57" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="M57" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="N57" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="O57" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P57" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q57" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R57" s="13"/>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" s="10">
+        <v>0</v>
+      </c>
+      <c r="H58" s="9"/>
+      <c r="I58" s="10">
+        <v>5</v>
+      </c>
+      <c r="J58" s="10"/>
+      <c r="K58" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="L58" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="N58" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="O58" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P58" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q58" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R58" s="9"/>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="A59" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G59" s="18">
+        <v>0</v>
+      </c>
+      <c r="H59" s="17"/>
+      <c r="I59" s="18">
+        <v>2</v>
+      </c>
+      <c r="J59" s="18"/>
+      <c r="K59" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="L59" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M59" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="N59" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="O59" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P59" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q59" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R59" s="17"/>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60" s="10">
+        <v>0</v>
+      </c>
+      <c r="H60" s="9"/>
+      <c r="I60" s="10">
+        <v>15</v>
+      </c>
+      <c r="J60" s="10"/>
+      <c r="K60" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="L60" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="M60" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="N60" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="O60" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P60" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q60" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R60" s="9"/>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G61" s="14">
+        <v>0</v>
+      </c>
+      <c r="H61" s="13"/>
+      <c r="I61" s="14">
+        <v>5</v>
+      </c>
+      <c r="J61" s="14"/>
+      <c r="K61" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="L61" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="M61" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="N61" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="O61" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P61" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q61" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R61" s="13"/>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G62" s="18">
+        <v>0</v>
+      </c>
+      <c r="H62" s="17"/>
+      <c r="I62" s="18">
+        <v>10</v>
+      </c>
+      <c r="J62" s="18"/>
+      <c r="K62" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="L62" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M62" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="N62" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="O62" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P62" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q62" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R62" s="17"/>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="A63" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" s="18">
+        <v>0</v>
+      </c>
+      <c r="H63" s="17"/>
+      <c r="I63" s="18">
+        <v>5</v>
+      </c>
+      <c r="J63" s="18"/>
+      <c r="K63" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L63" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M63" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="N63" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="O63" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P63" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q63" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R63" s="17"/>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="A64" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G64" s="6">
+        <v>0</v>
+      </c>
+      <c r="H64" s="5"/>
+      <c r="I64" s="6">
+        <v>2</v>
+      </c>
+      <c r="J64" s="6"/>
+      <c r="K64" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="N64" s="7"/>
+      <c r="O64" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P64" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q64" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R64" s="5"/>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="A65" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G65" s="10">
+        <v>0</v>
+      </c>
+      <c r="H65" s="9"/>
+      <c r="I65" s="10">
+        <v>20</v>
+      </c>
+      <c r="J65" s="10"/>
+      <c r="K65" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M65" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="N65" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="O65" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P65" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q65" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R65" s="9"/>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="A66" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G66" s="10">
+        <v>0</v>
+      </c>
+      <c r="H66" s="9"/>
+      <c r="I66" s="10">
+        <v>1</v>
+      </c>
+      <c r="J66" s="10"/>
+      <c r="K66" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="L66" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="M66" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="N66" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="O66" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P66" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q66" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R66" s="9"/>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="A67" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G67" s="18">
+        <v>0</v>
+      </c>
+      <c r="H67" s="17"/>
+      <c r="I67" s="18">
+        <v>2</v>
+      </c>
+      <c r="J67" s="18"/>
+      <c r="K67" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="L67" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M67" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="N67" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="O67" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P67" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q67" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R67" s="17"/>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="A68" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68" s="18">
+        <v>0</v>
+      </c>
+      <c r="H68" s="17"/>
+      <c r="I68" s="18">
+        <v>2</v>
+      </c>
+      <c r="J68" s="18"/>
+      <c r="K68" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R6" s="5"/>
+      <c r="L68" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M68" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="N68" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="O68" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P68" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q68" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R68" s="17"/>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69" s="10">
+        <v>0</v>
+      </c>
+      <c r="H69" s="9"/>
+      <c r="I69" s="10">
+        <v>10</v>
+      </c>
+      <c r="J69" s="10"/>
+      <c r="K69" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N69" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="O69" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P69" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q69" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R69" s="9"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/PR Summary.xlsx
+++ b/PR Summary.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
-  <si>
-    <t>JOR Summary 2021</t>
-  </si>
-  <si>
-    <t>JOB ORDER REQUEST</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
+  <si>
+    <t>PR Summary 2021</t>
+  </si>
+  <si>
+    <t>PURCHASE REQUEST</t>
   </si>
   <si>
     <t>On Hold</t>
@@ -32,24 +32,27 @@
     <t>Date Received/Emailed</t>
   </si>
   <si>
-    <t>Delivery Date</t>
-  </si>
-  <si>
-    <t>Completion Date</t>
-  </si>
-  <si>
-    <t>JO Request</t>
-  </si>
-  <si>
-    <t>Project Title</t>
-  </si>
-  <si>
-    <t>JO No.</t>
+    <t>Purchase Request</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Enduse</t>
+  </si>
+  <si>
+    <t>PR No.</t>
   </si>
   <si>
     <t>Requestor</t>
   </si>
   <si>
+    <t>WH Stocks</t>
+  </si>
+  <si>
+    <t>Item No.</t>
+  </si>
+  <si>
     <t>Qty</t>
   </si>
   <si>
@@ -62,7 +65,13 @@
     <t>Grouping</t>
   </si>
   <si>
-    <t>Scope of Work</t>
+    <t>Item Description</t>
+  </si>
+  <si>
+    <t>Verified Date Needed</t>
+  </si>
+  <si>
+    <t>Estimated</t>
   </si>
   <si>
     <t>Status Remarks</t>
@@ -71,6 +80,9 @@
     <t>Status</t>
   </si>
   <si>
+    <t>Date Needed</t>
+  </si>
+  <si>
     <t>Remarks</t>
   </si>
   <si>
@@ -78,6 +90,312 @@
   </si>
   <si>
     <t>End User's Comments</t>
+  </si>
+  <si>
+    <t>2021-01-09</t>
+  </si>
+  <si>
+    <t>Operations and Maintenance Consumables</t>
+  </si>
+  <si>
+    <t>Running Units (Units 1-5)</t>
+  </si>
+  <si>
+    <t>OPE21-1537-CNPR</t>
+  </si>
+  <si>
+    <t>Alona T. Arroyo</t>
+  </si>
+  <si>
+    <t>pail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multicleaner, Uniliq, Water Based </t>
+  </si>
+  <si>
+    <t>2021-03-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For RFQ 
+</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Jan 18, 2021</t>
+  </si>
+  <si>
+    <t>PR-008-2021</t>
+  </si>
+  <si>
+    <t>liters</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diesel Oil </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.26.2021 - Delivered DR# 2325-CNPR
+</t>
+  </si>
+  <si>
+    <t>Fully Delivered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kerosene </t>
+  </si>
+  <si>
+    <t>cans</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penetrant, Multi Use, WD-40, Net Content: 382 mL / 311G / 12.9 FL.OZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.20.2021 - Delivered DR# 2310-CNPR
+</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polish, Metal, A-1 Premium Grade Net Content, 150ml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.21.2021 - Delivered DR# 2311-CNPR
+</t>
+  </si>
+  <si>
+    <t>cyl</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acetylene </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PO Issued (1.00 cyl)
+</t>
+  </si>
+  <si>
+    <t>cyls</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxygen </t>
+  </si>
+  <si>
+    <t>kgs</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrode, Welding, E6011, 1/8" x 12" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PO Issued (10.00 kgs)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrode, Welding, E3013, 1/8" x 12" </t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrode, Welding, E304, 3/32" x 12" (Stainless Steel Welding Electrode) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.22.2021 - Delivered DR# 2320-CNPR
+</t>
+  </si>
+  <si>
+    <t>pair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gloves, Welding, 16" - 18" long </t>
+  </si>
+  <si>
+    <t>pcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glass, Clear, 2" x 4" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glass, Dark , #10 </t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grinding Wheel, Gray, 6x1x3/4" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circular Brush, 6", Preferred Brand: Creston </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disc, Cutting, 4" x 3/32" x 5/8" (Tyrolit 41 A30Q-BF) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PO Issued (25.00 pcs)
+</t>
+  </si>
+  <si>
+    <t>sheets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paper, Abrasive, Grit 1000 - Creston Silicon Carbide Abrasive Paper </t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paper, Abrasive, Grit 800 - Creston Silicon Carbide Abrasive Paper </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.22.2021 - Delivered DR# 2312-CNPR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paper, Abrasive, Grit 600 - Creston Silicon Carbide Abrasive Paper </t>
+  </si>
+  <si>
+    <t>EZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paper, Abrasive, Grit 120 - Creston Silicon Carbide Abrasive Paper </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PO Issued (10.00 sheets)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig.: 2.00 pcs
+</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brush, Steel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PO Issued (2.00 pcs)
+</t>
+  </si>
+  <si>
+    <t>BX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blade, Hacksaw, HSS, 300mm/12", 18 TPI </t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drill Bit, HSS, 1/4" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.22.2021 - Delivered DR# 2323-CNPR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drill Bit, HSS, 1/8" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drill Bit, HSS, 1/16" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.22.2021 - Delivered DR# 2322-CNPR
+</t>
+  </si>
+  <si>
+    <t>bottle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adhesive, Rugby, Contact Cement, 300mL </t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gasket Maker, Red RTV, High Temperature (up to 650 °F), 85 Grams </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.22.2021 - Delivered DR# 2319-CNPR
+</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulb, LED, Daylight, 14 Watts, Input Voltage: AC 180-265V 50/60 Hz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.22.2021 - Delivered DR# 2318-CNPR
+</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battery, AA, 1.5 Volts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.21.2021 - Delivered DR# 2313-CNPR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battery, AAA, 1.5Volts </t>
+  </si>
+  <si>
+    <t>AW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rags, Cotton </t>
+  </si>
+  <si>
+    <t>pairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gloves, Knitted Cotton </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chalkstone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brush, Paint, 2" </t>
+  </si>
+  <si>
+    <t>gallons</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soap, Liquid, Industrial </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.21.2021 - Delivered DR# 2315-CNPR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bag, Garbage, Large </t>
   </si>
 </sst>
 </file>
@@ -114,13 +432,25 @@
       <name val="Arial Black"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFbcffc7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFffecd0"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -145,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -157,6 +487,42 @@
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="3" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,36 +823,40 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="W40" sqref="W40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="27.13623" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="25.279541" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="9.283447" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="25.85083" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="18.709717" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="19.995117" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="45.845947" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="30.563965" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="4.570313" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="4.570313" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="88.406982" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="24.708252" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="43.560791" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="29.421387" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="22" max="22" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="23.422852" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -495,12 +865,12 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:23">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -558,6 +928,1980 @@
       <c r="S4" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="T4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>300</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="10">
+        <v>21</v>
+      </c>
+      <c r="J6" s="9">
+        <v>2</v>
+      </c>
+      <c r="K6" s="10">
+        <v>20</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="10">
+        <v>55</v>
+      </c>
+      <c r="J7" s="9">
+        <v>3</v>
+      </c>
+      <c r="K7" s="10">
+        <v>20</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="M7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="10">
+        <v>13</v>
+      </c>
+      <c r="J8" s="9">
+        <v>4</v>
+      </c>
+      <c r="K8" s="10">
+        <v>3</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>5</v>
+      </c>
+      <c r="K9" s="10">
+        <v>1</v>
+      </c>
+      <c r="L9" s="10"/>
+      <c r="M9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0</v>
+      </c>
+      <c r="J10" s="13">
+        <v>6</v>
+      </c>
+      <c r="K10" s="14">
+        <v>1</v>
+      </c>
+      <c r="L10" s="14"/>
+      <c r="M10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="U10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="6">
+        <v>4</v>
+      </c>
+      <c r="J11" s="5">
+        <v>7</v>
+      </c>
+      <c r="K11" s="6">
+        <v>2</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="14">
+        <v>57</v>
+      </c>
+      <c r="J12" s="13">
+        <v>8</v>
+      </c>
+      <c r="K12" s="14">
+        <v>10</v>
+      </c>
+      <c r="L12" s="14"/>
+      <c r="M12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="U12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="6">
+        <v>57</v>
+      </c>
+      <c r="J13" s="5">
+        <v>9</v>
+      </c>
+      <c r="K13" s="6">
+        <v>10</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="10">
+        <v>1</v>
+      </c>
+      <c r="J14" s="9">
+        <v>10</v>
+      </c>
+      <c r="K14" s="10">
+        <v>1</v>
+      </c>
+      <c r="L14" s="10"/>
+      <c r="M14" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9">
+        <v>11</v>
+      </c>
+      <c r="K15" s="10">
+        <v>1</v>
+      </c>
+      <c r="L15" s="10"/>
+      <c r="M15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="10">
+        <v>4</v>
+      </c>
+      <c r="J16" s="9">
+        <v>12</v>
+      </c>
+      <c r="K16" s="10">
+        <v>1</v>
+      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="10">
+        <v>6</v>
+      </c>
+      <c r="J17" s="9">
+        <v>13</v>
+      </c>
+      <c r="K17" s="10">
+        <v>2</v>
+      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <v>14</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N18" s="4"/>
+      <c r="O18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <v>15</v>
+      </c>
+      <c r="K19" s="6">
+        <v>1</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="14">
+        <v>95</v>
+      </c>
+      <c r="J20" s="13">
+        <v>16</v>
+      </c>
+      <c r="K20" s="14">
+        <v>25</v>
+      </c>
+      <c r="L20" s="14"/>
+      <c r="M20" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="U20" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="6">
+        <v>26</v>
+      </c>
+      <c r="J21" s="5">
+        <v>17</v>
+      </c>
+      <c r="K21" s="6">
+        <v>5</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N21" s="4"/>
+      <c r="O21" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="10">
+        <v>3</v>
+      </c>
+      <c r="J22" s="9">
+        <v>18</v>
+      </c>
+      <c r="K22" s="10">
+        <v>10</v>
+      </c>
+      <c r="L22" s="10"/>
+      <c r="M22" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="O22" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="6">
+        <v>42</v>
+      </c>
+      <c r="J23" s="5">
+        <v>19</v>
+      </c>
+      <c r="K23" s="6">
+        <v>10</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N23" s="4"/>
+      <c r="O23" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="14">
+        <v>24</v>
+      </c>
+      <c r="J24" s="13">
+        <v>20</v>
+      </c>
+      <c r="K24" s="14">
+        <v>10</v>
+      </c>
+      <c r="L24" s="14"/>
+      <c r="M24" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="T24" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="U24" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="14">
+        <v>18</v>
+      </c>
+      <c r="J25" s="13">
+        <v>21</v>
+      </c>
+      <c r="K25" s="14">
+        <v>2</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="O25" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="T25" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="U25" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="14">
+        <v>4</v>
+      </c>
+      <c r="J26" s="13">
+        <v>22</v>
+      </c>
+      <c r="K26" s="14">
+        <v>2</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="O26" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="T26" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="U26" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="10">
+        <v>0</v>
+      </c>
+      <c r="J27" s="9">
+        <v>23</v>
+      </c>
+      <c r="K27" s="10">
+        <v>1</v>
+      </c>
+      <c r="L27" s="10"/>
+      <c r="M27" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O27" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="S27" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T27" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="10">
+        <v>0</v>
+      </c>
+      <c r="J28" s="9">
+        <v>24</v>
+      </c>
+      <c r="K28" s="10">
+        <v>3</v>
+      </c>
+      <c r="L28" s="10"/>
+      <c r="M28" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O28" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="S28" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T28" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="10">
+        <v>0</v>
+      </c>
+      <c r="J29" s="9">
+        <v>25</v>
+      </c>
+      <c r="K29" s="10">
+        <v>2</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O29" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="S29" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T29" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="10">
+        <v>1</v>
+      </c>
+      <c r="J30" s="9">
+        <v>26</v>
+      </c>
+      <c r="K30" s="10">
+        <v>1</v>
+      </c>
+      <c r="L30" s="10"/>
+      <c r="M30" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O30" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="S30" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U30" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="10">
+        <v>3</v>
+      </c>
+      <c r="J31" s="9">
+        <v>27</v>
+      </c>
+      <c r="K31" s="10">
+        <v>1</v>
+      </c>
+      <c r="L31" s="10"/>
+      <c r="M31" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O31" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="S31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T31" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U31" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" s="10">
+        <v>0</v>
+      </c>
+      <c r="J32" s="9">
+        <v>28</v>
+      </c>
+      <c r="K32" s="10">
+        <v>2</v>
+      </c>
+      <c r="L32" s="10"/>
+      <c r="M32" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O32" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="S32" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T32" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U32" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="10">
+        <v>0</v>
+      </c>
+      <c r="J33" s="9">
+        <v>29</v>
+      </c>
+      <c r="K33" s="10">
+        <v>6</v>
+      </c>
+      <c r="L33" s="10"/>
+      <c r="M33" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O33" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="S33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T33" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U33" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" s="10">
+        <v>0</v>
+      </c>
+      <c r="J34" s="9">
+        <v>30</v>
+      </c>
+      <c r="K34" s="10">
+        <v>4</v>
+      </c>
+      <c r="L34" s="10"/>
+      <c r="M34" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O34" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="S34" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T34" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U34" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" s="14">
+        <v>54</v>
+      </c>
+      <c r="J35" s="13">
+        <v>31</v>
+      </c>
+      <c r="K35" s="14">
+        <v>10</v>
+      </c>
+      <c r="L35" s="14"/>
+      <c r="M35" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N35" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="O35" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="T35" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="U35" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" s="10">
+        <v>25</v>
+      </c>
+      <c r="J36" s="9">
+        <v>32</v>
+      </c>
+      <c r="K36" s="10">
+        <v>25</v>
+      </c>
+      <c r="L36" s="10"/>
+      <c r="M36" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="S36" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T36" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U36" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" s="10">
+        <v>4</v>
+      </c>
+      <c r="J37" s="9">
+        <v>33</v>
+      </c>
+      <c r="K37" s="10">
+        <v>10</v>
+      </c>
+      <c r="L37" s="10"/>
+      <c r="M37" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="O37" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="S37" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T37" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U37" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" s="10">
+        <v>5</v>
+      </c>
+      <c r="J38" s="9">
+        <v>34</v>
+      </c>
+      <c r="K38" s="10">
+        <v>2</v>
+      </c>
+      <c r="L38" s="10"/>
+      <c r="M38" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="O38" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="S38" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T38" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U38" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" s="10">
+        <v>1</v>
+      </c>
+      <c r="J39" s="9">
+        <v>35</v>
+      </c>
+      <c r="K39" s="10">
+        <v>2</v>
+      </c>
+      <c r="L39" s="10"/>
+      <c r="M39" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="O39" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="S39" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T39" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U39" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" s="6">
+        <v>10</v>
+      </c>
+      <c r="J40" s="5">
+        <v>36</v>
+      </c>
+      <c r="K40" s="6">
+        <v>10</v>
+      </c>
+      <c r="L40" s="6"/>
+      <c r="M40" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N40" s="4"/>
+      <c r="O40" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="T40" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U40" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/PR Summary.xlsx
+++ b/PR Summary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>PR Summary 2021</t>
   </si>
@@ -92,70 +92,32 @@
     <t>End User's Comments</t>
   </si>
   <si>
-    <t>2021-06-10</t>
-  </si>
-  <si>
-    <t>bacolod</t>
-  </si>
-  <si>
-    <t>Lorem Ipsum 233323</t>
-  </si>
-  <si>
-    <t>Lorem Ipsum 233223</t>
-  </si>
-  <si>
-    <t>ITB21-1000-CNPR</t>
-  </si>
-  <si>
-    <t>jush</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orig.: 10.00 pc/s
-Rev. 1: 5.00 pc/s
-Rev. 2: 8.00 pc/s
+    <t>2021-11-23</t>
+  </si>
+  <si>
+    <t>BCD</t>
+  </si>
+  <si>
+    <t>Replacement of damage UPS</t>
+  </si>
+  <si>
+    <t>Bacolod HR Admin</t>
+  </si>
+  <si>
+    <t>HRB21-1000-CNPR</t>
+  </si>
+  <si>
+    <t>Syndey Sinoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 </t>
   </si>
   <si>
     <t>pc/s</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 12234 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">06.11.2021 - Delivered DR# 1003-CNPR (2.00 pc/s)
-</t>
-  </si>
-  <si>
-    <t>Partially Delivered</t>
-  </si>
-  <si>
-    <t>Jun 11, 2021</t>
-  </si>
-  <si>
-    <t>✓</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 15234 </t>
-  </si>
-  <si>
-    <t>For RFQ 
--On Hold Date: 2021-06-10 04:25:14
- -On Hold By: Jonah Benares</t>
-  </si>
-  <si>
-    <t>On-Hold</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 29123 </t>
+    <t xml:space="preserve">Adapter </t>
   </si>
   <si>
     <t xml:space="preserve">For RFQ 
@@ -163,6 +125,92 @@
   </si>
   <si>
     <t>Pending</t>
+  </si>
+  <si>
+    <t>Nov 29, 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Cord </t>
+  </si>
+  <si>
+    <t>roll/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrical Tape </t>
+  </si>
+  <si>
+    <t>unit/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPS </t>
+  </si>
+  <si>
+    <t>For RFQ 
+-Recom By: Jonah Benares
+ -Recom Date: Nov 22, 2021 To Nov 27, 2021</t>
+  </si>
+  <si>
+    <t>For Recom</t>
+  </si>
+  <si>
+    <t>Additional SSD for laggy laptop</t>
+  </si>
+  <si>
+    <t>Hennelen Tanan</t>
+  </si>
+  <si>
+    <t>ITB21-1001-CNPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD 500GB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delivered by CENPRI-MNL';
+                                      = 'For RFQ 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ -2021-11-23
+ -Access Frontier Technologies, Inc.
+ -2500.0000
+ -1</t>
+  </si>
+  <si>
+    <t>Replacement for damaged AVR</t>
+  </si>
+  <si>
+    <t>Bacolod Employees</t>
+  </si>
+  <si>
+    <t>ITB21-1002-CNPR</t>
+  </si>
+  <si>
+    <t>Jason Flor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVR </t>
+  </si>
+  <si>
+    <t>Repair broken internet lines</t>
+  </si>
+  <si>
+    <t>HRB21-1003-CNPR</t>
+  </si>
+  <si>
+    <t>box/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTP Cable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RJ 45 Connector Plug </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crimping Tool </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duct Tape </t>
   </si>
 </sst>
 </file>
@@ -211,13 +259,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFf7ffb9"/>
+        <fgColor rgb="FFfd9c77"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFd2deff"/>
+        <fgColor rgb="FFeeccff"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -255,6 +303,18 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -277,18 +337,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -590,10 +638,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="W7" sqref="W7"/>
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -602,23 +650,23 @@
     <col min="2" max="2" width="9.283447" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="25.85083" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="37.705078" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="21.137695" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="18.709717" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="17.567139" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="21.137695" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="19.995117" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="25.85083" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="24.708252" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="57.700195" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="50.559082" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="58.842773" bestFit="true" customWidth="true" style="0"/>
     <col min="20" max="20" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="43.560791" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="17.567139" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="23.422852" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -733,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" s="6">
         <v>10</v>
@@ -744,138 +792,519 @@
       <c r="M5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="4"/>
+      <c r="O5" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="T5" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="6">
         <v>0</v>
       </c>
-      <c r="J6" s="9">
-        <v>2</v>
-      </c>
-      <c r="K6" s="10">
-        <v>15</v>
-      </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="8" t="s">
+      <c r="J6" s="5">
+        <v>3</v>
+      </c>
+      <c r="K6" s="6">
+        <v>10</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="T6" s="8" t="s">
+      <c r="N6" s="4"/>
+      <c r="O6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="6">
         <v>0</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="5">
+        <v>4</v>
+      </c>
+      <c r="K7" s="6">
+        <v>2</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>1</v>
+      </c>
+      <c r="K8" s="10">
+        <v>10</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="8"/>
+      <c r="O8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
+        <v>1</v>
+      </c>
+      <c r="K9" s="14">
+        <v>1</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="12"/>
+      <c r="O9" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="U9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="6">
+        <v>20</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="6">
+        <v>2</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>2</v>
+      </c>
+      <c r="K12" s="6">
+        <v>100</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
         <v>3</v>
       </c>
-      <c r="K7" s="14">
-        <v>20</v>
-      </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="12" t="s">
+      <c r="K13" s="6">
+        <v>1</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="S7" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="T7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>4</v>
+      </c>
+      <c r="K14" s="6">
+        <v>10</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/PR Summary.xlsx
+++ b/PR Summary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>PR Summary 2021</t>
   </si>
@@ -92,125 +92,107 @@
     <t>End User's Comments</t>
   </si>
   <si>
-    <t>2021-11-23</t>
-  </si>
-  <si>
-    <t>BCD</t>
-  </si>
-  <si>
-    <t>Replacement of damage UPS</t>
-  </si>
-  <si>
-    <t>Bacolod HR Admin</t>
-  </si>
-  <si>
-    <t>HRB21-1000-CNPR</t>
-  </si>
-  <si>
-    <t>Syndey Sinoro</t>
+    <t>2021-08-27</t>
+  </si>
+  <si>
+    <t>Installation of Jacket Water Injector Cooling By-Pass Line</t>
+  </si>
+  <si>
+    <t>DG Unit 4 and Unit 5</t>
+  </si>
+  <si>
+    <t>MAI21-1877-CNPR</t>
+  </si>
+  <si>
+    <t>Ruel Beato</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>pc/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adapter </t>
-  </si>
-  <si>
-    <t xml:space="preserve">For RFQ 
+    <t>length</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BI Pipe, Sched 40, 1 1/2" NPS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.09.2021 - Delivered DR# 3500-CNPR
 </t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>Nov 29, 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Cord </t>
-  </si>
-  <si>
-    <t>roll/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electrical Tape </t>
-  </si>
-  <si>
-    <t>unit/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPS </t>
-  </si>
-  <si>
-    <t>For RFQ 
--Recom By: Jonah Benares
- -Recom Date: Nov 22, 2021 To Nov 27, 2021</t>
-  </si>
-  <si>
-    <t>For Recom</t>
-  </si>
-  <si>
-    <t>Additional SSD for laggy laptop</t>
-  </si>
-  <si>
-    <t>Hennelen Tanan</t>
-  </si>
-  <si>
-    <t>ITB21-1001-CNPR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD 500GB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delivered by CENPRI-MNL';
-                                      = 'For RFQ 
+    <t>Fully Delivered</t>
+  </si>
+  <si>
+    <t>Sep 11, 2021</t>
+  </si>
+  <si>
+    <t>MAI-266-2021</t>
+  </si>
+  <si>
+    <t>lengths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BI Pipe, Sched 40, 1" NPS </t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gate Valve, 150 lbs rating, Rising Stem, Flange Type, Cast Steel, 1 1/2" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.13.2021 - Delivered DR# 3921-CNPR
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
- -2021-11-23
- -Access Frontier Technologies, Inc.
- -2500.0000
- -1</t>
-  </si>
-  <si>
-    <t>Replacement for damaged AVR</t>
-  </si>
-  <si>
-    <t>Bacolod Employees</t>
-  </si>
-  <si>
-    <t>ITB21-1002-CNPR</t>
-  </si>
-  <si>
-    <t>Jason Flor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVR </t>
-  </si>
-  <si>
-    <t>Repair broken internet lines</t>
-  </si>
-  <si>
-    <t>HRB21-1003-CNPR</t>
-  </si>
-  <si>
-    <t>box/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UTP Cable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RJ 45 Connector Plug </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crimping Tool </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duct Tape </t>
+    <t>pcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gate Valve, 150 lbs rating, Rising Stem, Flange Type, Cast Steel, 1" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.I. Elbow, Long Radius, Seamless, Buttweld End, Schedule 40, 1 1/2" x 90° </t>
+  </si>
+  <si>
+    <t>PO Issued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.I. Elbow, Long Radius, Seamless, Buttweld End, Schedule 40, 1" x 90° </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slip-on Flange, Class 150, ANSI B16.5, Raised Faced, 1 1/2" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slip-on Flange, Class 150, ANSI B16.5, Raised Faced, 1" </t>
+  </si>
+  <si>
+    <t>sets</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hex Head Bolt, High Tensile, Full-thread, Grade 5, M14 x 45 mm x 1.5 Pitch, with Nut &amp; Lock Washer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.04.2021 - Delivered DR# 3531-CNPR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hex Head Bolt, High Tensile, Full-thread, Grade 5, M12 x 45 mm x 1.5 Pitch, with Nut &amp; Lock Washer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U-bolt, 1/4" x 1 1/2" NPS, w/ Nut &amp; Lock Washer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U-bolt, 3/8" x 1" NPS, w/ Nut &amp; Lock Washer </t>
   </si>
 </sst>
 </file>
@@ -259,13 +241,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFfd9c77"/>
+        <fgColor rgb="FFbcffc7"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFeeccff"/>
+        <fgColor rgb="FFffecd0"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -290,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -302,18 +284,6 @@
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -638,10 +608,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="W14" sqref="W14"/>
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -650,23 +620,23 @@
     <col min="2" max="2" width="9.283447" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="25.85083" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="37.705078" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="69.554443" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="24.708252" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="18.709717" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="9.283447" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="25.85083" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="117.828369" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="24.708252" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="50.559082" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="58.842773" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="43.560791" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="20" max="20" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="43.560791" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="17.567139" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="23.422852" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -762,37 +732,37 @@
       <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="6">
+        <v>2</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>2</v>
-      </c>
-      <c r="K5" s="6">
-        <v>10</v>
-      </c>
-      <c r="L5" s="6" t="s">
+      <c r="M5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="4"/>
       <c r="O5" s="7" t="s">
         <v>33</v>
       </c>
@@ -807,7 +777,9 @@
       <c r="T5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="U5" s="5"/>
+      <c r="U5" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
     </row>
@@ -817,39 +789,39 @@
       <c r="C6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="I6" s="6">
         <v>0</v>
       </c>
       <c r="J6" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="4"/>
       <c r="O6" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="6"/>
@@ -862,7 +834,9 @@
       <c r="T6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="U6" s="5"/>
+      <c r="U6" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
     </row>
@@ -872,44 +846,44 @@
       <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
       </c>
       <c r="J7" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K7" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="S7" s="5" t="s">
         <v>35</v>
@@ -917,119 +891,123 @@
       <c r="T7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="U7" s="5"/>
+      <c r="U7" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>4</v>
+      </c>
+      <c r="K8" s="6">
+        <v>3</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="10">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <v>1</v>
-      </c>
-      <c r="K8" s="10">
-        <v>10</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="11" t="s">
+      <c r="M8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="S8" s="9" t="s">
+      <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="T8" s="8" t="s">
+      <c r="S8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
+      <c r="U8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="F9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>5</v>
+      </c>
+      <c r="K9" s="10">
+        <v>3</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="12" t="s">
+      <c r="N9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="14">
-        <v>0</v>
-      </c>
-      <c r="J9" s="13">
-        <v>1</v>
-      </c>
-      <c r="K9" s="14">
-        <v>1</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="12"/>
-      <c r="O9" s="15" t="s">
+      <c r="P9" s="8"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="T9" s="12" t="s">
+      <c r="T9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="U9" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
+      <c r="U9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="4"/>
@@ -1037,44 +1015,44 @@
       <c r="C10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="F10" s="5" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I10" s="6">
         <v>0</v>
       </c>
       <c r="J10" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K10" s="6">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N10" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="S10" s="5" t="s">
         <v>35</v>
@@ -1082,7 +1060,9 @@
       <c r="T10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="U10" s="5"/>
+      <c r="U10" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
     </row>
@@ -1092,44 +1072,44 @@
       <c r="C11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="F11" s="5" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="6">
         <v>0</v>
       </c>
       <c r="J11" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K11" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="N11" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="O11" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="S11" s="5" t="s">
         <v>35</v>
@@ -1137,7 +1117,9 @@
       <c r="T11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="U11" s="5"/>
+      <c r="U11" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
     </row>
@@ -1147,44 +1129,44 @@
       <c r="C12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="F12" s="5" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12" s="6">
         <v>0</v>
       </c>
       <c r="J12" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K12" s="6">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="O12" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="S12" s="5" t="s">
         <v>35</v>
@@ -1192,7 +1174,9 @@
       <c r="T12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="U12" s="5"/>
+      <c r="U12" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
     </row>
@@ -1202,44 +1186,44 @@
       <c r="C13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="F13" s="5" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I13" s="6">
         <v>0</v>
       </c>
       <c r="J13" s="5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K13" s="6">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="O13" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="5" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="S13" s="5" t="s">
         <v>35</v>
@@ -1247,7 +1231,9 @@
       <c r="T13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="U13" s="5"/>
+      <c r="U13" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
     </row>
@@ -1257,44 +1243,44 @@
       <c r="C14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="F14" s="5" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I14" s="6">
         <v>0</v>
       </c>
       <c r="J14" s="5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K14" s="6">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N14" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="O14" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="5" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="S14" s="5" t="s">
         <v>35</v>
@@ -1302,9 +1288,125 @@
       <c r="T14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="U14" s="5"/>
+      <c r="U14" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>11</v>
+      </c>
+      <c r="K15" s="6">
+        <v>4</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>12</v>
+      </c>
+      <c r="K16" s="6">
+        <v>10</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/PR Summary.xlsx
+++ b/PR Summary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>PR Summary 2021</t>
   </si>
@@ -92,22 +92,22 @@
     <t>End User's Comments</t>
   </si>
   <si>
-    <t>2021-11-23</t>
-  </si>
-  <si>
-    <t>BCD</t>
-  </si>
-  <si>
-    <t>Replacement of damage UPS</t>
-  </si>
-  <si>
-    <t>Bacolod HR Admin</t>
-  </si>
-  <si>
-    <t>HRB21-1000-CNPR</t>
-  </si>
-  <si>
-    <t>Syndey Sinoro</t>
+    <t>2021-04-01</t>
+  </si>
+  <si>
+    <t>cons</t>
+  </si>
+  <si>
+    <t>Monitor Table and Shelves for ASPA Purpose</t>
+  </si>
+  <si>
+    <t>Monitor Table and Shelves for ASPA Enduse</t>
+  </si>
+  <si>
+    <t>ITB21-1553-CNPR</t>
+  </si>
+  <si>
+    <t>Henne</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -117,100 +117,114 @@
     <t>pc/s</t>
   </si>
   <si>
-    <t xml:space="preserve">Adapter </t>
-  </si>
-  <si>
-    <t xml:space="preserve">For RFQ 
+    <t>I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mouse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03.03.2021 - Delivered DR# 2444-CNPR
 </t>
   </si>
   <si>
+    <t>Fully Delivered</t>
+  </si>
+  <si>
+    <t>May 10, 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyboard </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01.01.70</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>May 11, 2021</t>
+  </si>
+  <si>
+    <t>✓</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitor </t>
+  </si>
+  <si>
+    <t>Canvassing Ongoing  
+-On Hold Date: 2021-03-03 03:42:36
+ -On Hold By: Jonah Benares</t>
+  </si>
+  <si>
+    <t>On-Hold</t>
+  </si>
+  <si>
+    <t>May 12, 2021</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPU </t>
+  </si>
+  <si>
+    <t>cancel 03.03.21</t>
+  </si>
+  <si>
+    <t>May 13, 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speaker </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canvassing Ongoing 
+</t>
+  </si>
+  <si>
     <t>Pending</t>
   </si>
   <si>
-    <t>Nov 29, 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Cord </t>
-  </si>
-  <si>
-    <t>roll/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electrical Tape </t>
-  </si>
-  <si>
-    <t>unit/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPS </t>
-  </si>
-  <si>
-    <t>For RFQ 
--Recom By: Jonah Benares
- -Recom Date: Nov 22, 2021 To Nov 27, 2021</t>
-  </si>
-  <si>
-    <t>For Recom</t>
-  </si>
-  <si>
-    <t>Additional SSD for laggy laptop</t>
-  </si>
-  <si>
-    <t>Hennelen Tanan</t>
-  </si>
-  <si>
-    <t>ITB21-1001-CNPR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD 500GB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delivered by CENPRI-MNL';
-                                      = 'For RFQ 
-</t>
+    <t>May 14, 2021</t>
   </si>
   <si>
     <t xml:space="preserve">
- -2021-11-23
- -Access Frontier Technologies, Inc.
- -2500.0000
- -1</t>
-  </si>
-  <si>
-    <t>Replacement for damaged AVR</t>
-  </si>
-  <si>
-    <t>Bacolod Employees</t>
-  </si>
-  <si>
-    <t>ITB21-1002-CNPR</t>
-  </si>
-  <si>
-    <t>Jason Flor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVR </t>
-  </si>
-  <si>
-    <t>Repair broken internet lines</t>
-  </si>
-  <si>
-    <t>HRB21-1003-CNPR</t>
-  </si>
-  <si>
-    <t>box/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UTP Cable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RJ 45 Connector Plug </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crimping Tool </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duct Tape </t>
+ -2021-03-11
+ -A &amp; M Medcare Products Distributors
+ -575.00
+ -3</t>
+  </si>
+  <si>
+    <t>2021-03-09</t>
+  </si>
+  <si>
+    <t>Bacolod</t>
+  </si>
+  <si>
+    <t>IT Sample</t>
+  </si>
+  <si>
+    <t>ITB21-1556-CNPR</t>
+  </si>
+  <si>
+    <t>Jonah Benares</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>2021-11-23</t>
+  </si>
+  <si>
+    <t>Mar 9, 2021</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -218,7 +232,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -246,8 +260,17 @@
       <color rgb="FF000000"/>
       <name val="Arial Black"/>
     </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFff0000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,13 +282,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFfd9c77"/>
+        <fgColor rgb="FFbcffc7"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFeeccff"/>
+        <fgColor rgb="FFcacaca"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFd2deff"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -290,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -303,6 +332,45 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="3" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="4" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -313,30 +381,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="3" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -638,10 +682,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="W14" sqref="W14"/>
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -650,23 +694,23 @@
     <col min="2" max="2" width="9.283447" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="25.85083" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="37.705078" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="50.559082" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="49.416504" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="18.709717" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="5.855713" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="25.85083" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="19.995117" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="24.708252" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="50.559082" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="58.842773" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="43.560791" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="20" max="20" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="43.560791" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="44.703369" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="17.567139" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="23.422852" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -781,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6">
         <v>2</v>
-      </c>
-      <c r="K5" s="6">
-        <v>10</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>31</v>
@@ -792,134 +836,142 @@
       <c r="M5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="4"/>
+      <c r="N5" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="10">
         <v>0</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="9">
+        <v>2</v>
+      </c>
+      <c r="K6" s="10">
         <v>3</v>
       </c>
-      <c r="K6" s="6">
-        <v>10</v>
-      </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
+      <c r="N6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
+      <c r="A7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="15">
         <v>0</v>
       </c>
-      <c r="J7" s="5">
-        <v>4</v>
-      </c>
-      <c r="K7" s="6">
-        <v>2</v>
-      </c>
-      <c r="L7" s="6" t="s">
+      <c r="J7" s="14">
+        <v>3</v>
+      </c>
+      <c r="K7" s="15">
+        <v>1</v>
+      </c>
+      <c r="L7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
+      <c r="M7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="8"/>
@@ -946,365 +998,271 @@
         <v>0</v>
       </c>
       <c r="J8" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K8" s="10">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="11" t="s">
-        <v>41</v>
+        <v>32</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="P8" s="8"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="9" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="U8" s="9"/>
       <c r="V8" s="9"/>
       <c r="W8" s="9"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="14">
+      <c r="E9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="19">
         <v>0</v>
       </c>
-      <c r="J9" s="13">
-        <v>1</v>
-      </c>
-      <c r="K9" s="14">
-        <v>1</v>
-      </c>
-      <c r="L9" s="14" t="s">
+      <c r="J9" s="18">
+        <v>5</v>
+      </c>
+      <c r="K9" s="19">
+        <v>3</v>
+      </c>
+      <c r="L9" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="12"/>
-      <c r="O9" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13" t="s">
+      <c r="M9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="T9" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="U9" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
+      <c r="O9" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="S9" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="T9" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="U9" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="19">
+        <v>0</v>
+      </c>
+      <c r="J10" s="18">
+        <v>1</v>
+      </c>
+      <c r="K10" s="19">
+        <v>15</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="O10" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>300</v>
+      </c>
+      <c r="R10" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="6">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
-        <v>1</v>
-      </c>
-      <c r="K10" s="6">
-        <v>20</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N10" s="4"/>
-      <c r="O10" s="7" t="s">
+      <c r="S10" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
+      <c r="T10" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="6">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="19">
         <v>0</v>
       </c>
-      <c r="J11" s="5">
-        <v>1</v>
-      </c>
-      <c r="K11" s="6">
+      <c r="J11" s="18">
         <v>2</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="K11" s="19">
+        <v>5</v>
+      </c>
+      <c r="L11" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="5" t="s">
+      <c r="M11" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="O11" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="S11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="S11" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="T11" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="6">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="19">
         <v>0</v>
       </c>
-      <c r="J12" s="5">
-        <v>2</v>
-      </c>
-      <c r="K12" s="6">
-        <v>100</v>
-      </c>
-      <c r="L12" s="6" t="s">
+      <c r="J12" s="18">
+        <v>3</v>
+      </c>
+      <c r="K12" s="19">
+        <v>10</v>
+      </c>
+      <c r="L12" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="6">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5">
-        <v>3</v>
-      </c>
-      <c r="K13" s="6">
-        <v>1</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="S13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="6">
-        <v>0</v>
-      </c>
-      <c r="J14" s="5">
-        <v>4</v>
-      </c>
-      <c r="K14" s="6">
-        <v>10</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="T14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
+      <c r="M12" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="O12" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="S12" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="T12" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/PR Summary.xlsx
+++ b/PR Summary.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
-  <si>
-    <t>PR Summary 2021</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+  <si>
+    <t>PR Summary 2022</t>
   </si>
   <si>
     <t>PURCHASE REQUEST</t>
@@ -92,139 +92,61 @@
     <t>End User's Comments</t>
   </si>
   <si>
-    <t>2021-04-01</t>
-  </si>
-  <si>
-    <t>cons</t>
-  </si>
-  <si>
-    <t>Monitor Table and Shelves for ASPA Purpose</t>
-  </si>
-  <si>
-    <t>Monitor Table and Shelves for ASPA Enduse</t>
-  </si>
-  <si>
-    <t>ITB21-1553-CNPR</t>
-  </si>
-  <si>
-    <t>Henne</t>
+    <t>2022-03-15</t>
+  </si>
+  <si>
+    <t>CENPRI-BAGO</t>
+  </si>
+  <si>
+    <t>DRINKING WATER FOR ALL EMPLOYEES</t>
+  </si>
+  <si>
+    <t>CENPRI-EMPLOYEES</t>
+  </si>
+  <si>
+    <t>HRB22-1000-CNPR</t>
+  </si>
+  <si>
+    <t>SYNDEY SINORO</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>pc/s</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mouse </t>
-  </si>
-  <si>
-    <t xml:space="preserve">03.03.2021 - Delivered DR# 2444-CNPR
+    <t>gal/s</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distilled Drinking Water slim with faucet gallons </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03.15.2022 - Delivered DR# 1000-CNPR
+03.15.2022 - Delivered DR# 1001-CNPR
 </t>
   </si>
   <si>
     <t>Fully Delivered</t>
   </si>
   <si>
-    <t>May 10, 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyboard </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 01.01.70</t>
-  </si>
-  <si>
-    <t>Cancelled</t>
-  </si>
-  <si>
-    <t>May 11, 2021</t>
-  </si>
-  <si>
-    <t>✓</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitor </t>
-  </si>
-  <si>
-    <t>Canvassing Ongoing  
--On Hold Date: 2021-03-03 03:42:36
- -On Hold By: Jonah Benares</t>
-  </si>
-  <si>
-    <t>On-Hold</t>
-  </si>
-  <si>
-    <t>May 12, 2021</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPU </t>
-  </si>
-  <si>
-    <t>cancel 03.03.21</t>
-  </si>
-  <si>
-    <t>May 13, 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speaker </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canvassing Ongoing 
+    <t>Mar 15, 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distilled Drinking Water round neck gallons </t>
+  </si>
+  <si>
+    <t>bot/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distilled Drinking 500ml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03.15.2022 - Delivered DR# 1000-CNPR
+03.15.2022 - Delivered DR# 1001-CNPR
+03.15.2022 - Delivered DR# 1002-CNPR
 </t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>May 14, 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- -2021-03-11
- -A &amp; M Medcare Products Distributors
- -575.00
- -3</t>
-  </si>
-  <si>
-    <t>2021-03-09</t>
-  </si>
-  <si>
-    <t>Bacolod</t>
-  </si>
-  <si>
-    <t>IT Sample</t>
-  </si>
-  <si>
-    <t>ITB21-1556-CNPR</t>
-  </si>
-  <si>
-    <t>Jonah Benares</t>
-  </si>
-  <si>
-    <t>pc</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>2021-11-23</t>
-  </si>
-  <si>
-    <t>Mar 9, 2021</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
 </sst>
 </file>
@@ -232,7 +154,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -260,17 +182,8 @@
       <color rgb="FF000000"/>
       <name val="Arial Black"/>
     </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFff0000"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,18 +196,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFbcffc7"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFcacaca"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFd2deff"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -319,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="8">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -342,45 +243,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="3" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="4" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -682,10 +544,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="W12" sqref="W12"/>
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -694,23 +556,23 @@
     <col min="2" max="2" width="9.283447" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="25.85083" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="50.559082" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="49.416504" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="38.847656" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="19.995117" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="19.995117" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="60.128174" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="24.708252" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="43.560791" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="20" max="20" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="44.703369" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="9.283447" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="17.567139" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="23.422852" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -828,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="6">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>31</v>
@@ -858,411 +720,118 @@
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="6">
         <v>0</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="5">
         <v>2</v>
       </c>
-      <c r="K6" s="10">
-        <v>3</v>
-      </c>
-      <c r="L6" s="10" t="s">
+      <c r="K6" s="6">
+        <v>20</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="T6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="6">
         <v>0</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="5">
         <v>3</v>
       </c>
-      <c r="K7" s="15">
-        <v>1</v>
-      </c>
-      <c r="L7" s="15" t="s">
+      <c r="K7" s="6">
+        <v>100</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="S7" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="T7" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="10">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <v>4</v>
-      </c>
-      <c r="K8" s="10">
-        <v>4</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="S8" s="9" t="s">
+      <c r="M7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="T8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="19">
-        <v>0</v>
-      </c>
-      <c r="J9" s="18">
-        <v>5</v>
-      </c>
-      <c r="K9" s="19">
-        <v>3</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="O9" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="S9" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="T9" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="U9" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" s="19">
-        <v>0</v>
-      </c>
-      <c r="J10" s="18">
-        <v>1</v>
-      </c>
-      <c r="K10" s="19">
-        <v>15</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="N10" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="O10" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="P10" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q10" s="19">
-        <v>300</v>
-      </c>
-      <c r="R10" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="S10" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="T10" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" s="19">
-        <v>0</v>
-      </c>
-      <c r="J11" s="18">
-        <v>2</v>
-      </c>
-      <c r="K11" s="19">
-        <v>5</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="N11" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="O11" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="S11" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="T11" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="19">
-        <v>0</v>
-      </c>
-      <c r="J12" s="18">
-        <v>3</v>
-      </c>
-      <c r="K12" s="19">
-        <v>10</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="N12" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="O12" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="S12" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="T12" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
